--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6250A312-4D18-4EDB-A346-8AB100C0E7D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3B337-F408-4291-B195-B5307C574CD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="675" windowWidth="24000" windowHeight="10830" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -47,43 +47,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{2954FF45-60BD-498F-8A86-AA2CF50455F4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Record structure」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
     <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -98,59 +61,6 @@
 Detailed specification of automatic generation is in "nablarch-development-standards-tools"
 See "Format definition file automatic generation tool" in the repository.
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{58DB8F20-5952-4499-8C38-218E32B780A1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「相手先」は
-「destination」と訳してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{7D545E4B-5BF0-416D-B5BD-BEC370885943}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「入力」「出力」が訳されていませんのでご対応をお願いします。</t>
         </r>
       </text>
     </comment>
@@ -367,71 +277,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{656BA62B-8A21-4941-9ECB-32D31478D6A6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「特記事項」は
-「Note」としてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{6D9BEBEC-F932-487B-BFB4-297A45D5ABE5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Record structure」としてください。
-他のセルも同様に
-「configuration」を「structure」に置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
@@ -518,35 +373,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC9" authorId="0" shapeId="0" xr:uid="{7515F7E3-4F38-4A3E-90D0-6B0FE007098E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-優先度 高→低 の部分ですが、
-英語での表現が難しいため
-空欄にしてください。
-お手数をおかけします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
@@ -565,7 +391,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -1353,9 +1179,6 @@
     <t>Domain name</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>Data type</t>
   </si>
   <si>
@@ -1568,6 +1391,10 @@
     <t>I/O subfunction ID/name</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
@@ -1577,7 +1404,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1776,21 +1603,6 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3092,6 +2904,9 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3478,9 +3293,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6450,12 +6262,12 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="27"/>
@@ -6467,29 +6279,29 @@
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -6507,7 +6319,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -6518,7 +6330,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1">
+    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -6538,7 +6350,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -6550,7 +6362,7 @@
       <c r="K25" s="174"/>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -6559,7 +6371,7 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6568,7 +6380,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="28"/>
@@ -6576,7 +6388,7 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -6585,7 +6397,7 @@
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -6594,7 +6406,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -6603,7 +6415,7 @@
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="28"/>
@@ -6618,7 +6430,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="28"/>
@@ -6632,7 +6444,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I34" s="28"/>
       <c r="J34" s="30"/>
       <c r="K34" s="28"/>
@@ -6642,509 +6454,509 @@
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P35" s="11"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P36" s="11"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
       <c r="S36" s="34"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="11"/>
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P38" s="11"/>
       <c r="Q38" s="33"/>
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P39" s="11"/>
       <c r="Q39" s="33"/>
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -7168,7 +6980,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="18" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="26" customWidth="1"/>
@@ -7177,7 +6989,7 @@
     <col min="36" max="16384" width="4.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="19" customFormat="1" ht="11.25">
+    <row r="1" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A1" s="207" t="s">
         <v>25</v>
       </c>
@@ -7233,7 +7045,7 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="21"/>
     </row>
-    <row r="2" spans="1:40" s="19" customFormat="1" ht="11.25">
+    <row r="2" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="207" t="s">
         <v>31</v>
       </c>
@@ -7286,7 +7098,7 @@
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
-    <row r="3" spans="1:40" s="19" customFormat="1" ht="11.25">
+    <row r="3" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="207" t="s">
         <v>34</v>
       </c>
@@ -7331,7 +7143,7 @@
       <c r="AM3" s="20"/>
       <c r="AN3" s="20"/>
     </row>
-    <row r="4" spans="1:40" s="22" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:40" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AB4" s="23"/>
       <c r="AC4" s="23"/>
       <c r="AD4" s="24"/>
@@ -7342,7 +7154,7 @@
       <c r="AI4" s="23"/>
       <c r="AJ4" s="23"/>
     </row>
-    <row r="5" spans="1:40" s="22" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="2" t="s">
         <v>36</v>
       </c>
@@ -7356,7 +7168,7 @@
       <c r="AI5" s="23"/>
       <c r="AJ5" s="23"/>
     </row>
-    <row r="6" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="2"/>
       <c r="AB6" s="23"/>
       <c r="AC6" s="23"/>
@@ -7368,7 +7180,7 @@
       <c r="AI6" s="23"/>
       <c r="AJ6" s="23"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
@@ -7420,7 +7232,7 @@
       <c r="AI7" s="204"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37">
         <v>1</v>
       </c>
@@ -7472,7 +7284,7 @@
       <c r="AI8" s="180"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38"/>
       <c r="B9" s="184"/>
       <c r="C9" s="186"/>
@@ -7510,7 +7322,7 @@
       <c r="AI9" s="177"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38"/>
       <c r="B10" s="184"/>
       <c r="C10" s="186"/>
@@ -7547,7 +7359,7 @@
       <c r="AH10" s="176"/>
       <c r="AI10" s="177"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="184"/>
       <c r="C11" s="186"/>
@@ -7584,7 +7396,7 @@
       <c r="AH11" s="176"/>
       <c r="AI11" s="177"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="184"/>
       <c r="C12" s="186"/>
@@ -7621,7 +7433,7 @@
       <c r="AH12" s="176"/>
       <c r="AI12" s="177"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="184"/>
       <c r="C13" s="186"/>
@@ -7658,7 +7470,7 @@
       <c r="AH13" s="176"/>
       <c r="AI13" s="177"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="184"/>
       <c r="C14" s="186"/>
@@ -7695,7 +7507,7 @@
       <c r="AH14" s="176"/>
       <c r="AI14" s="177"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1">
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="184"/>
       <c r="C15" s="186"/>
@@ -7732,7 +7544,7 @@
       <c r="AH15" s="176"/>
       <c r="AI15" s="177"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="184"/>
       <c r="C16" s="186"/>
@@ -7769,7 +7581,7 @@
       <c r="AH16" s="176"/>
       <c r="AI16" s="177"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="184"/>
       <c r="C17" s="186"/>
@@ -7806,7 +7618,7 @@
       <c r="AH17" s="176"/>
       <c r="AI17" s="177"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="184"/>
       <c r="C18" s="186"/>
@@ -7843,7 +7655,7 @@
       <c r="AH18" s="176"/>
       <c r="AI18" s="177"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="184"/>
       <c r="C19" s="186"/>
@@ -7880,7 +7692,7 @@
       <c r="AH19" s="176"/>
       <c r="AI19" s="177"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="184"/>
       <c r="C20" s="186"/>
@@ -7917,7 +7729,7 @@
       <c r="AH20" s="176"/>
       <c r="AI20" s="177"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="184"/>
       <c r="C21" s="186"/>
@@ -7954,7 +7766,7 @@
       <c r="AH21" s="176"/>
       <c r="AI21" s="177"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="184"/>
       <c r="C22" s="186"/>
@@ -7991,7 +7803,7 @@
       <c r="AH22" s="176"/>
       <c r="AI22" s="177"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="184"/>
       <c r="C23" s="186"/>
@@ -8028,7 +7840,7 @@
       <c r="AH23" s="176"/>
       <c r="AI23" s="177"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="184"/>
       <c r="C24" s="186"/>
@@ -8065,7 +7877,7 @@
       <c r="AH24" s="176"/>
       <c r="AI24" s="177"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="184"/>
       <c r="C25" s="186"/>
@@ -8102,7 +7914,7 @@
       <c r="AH25" s="176"/>
       <c r="AI25" s="177"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
       <c r="B26" s="184"/>
       <c r="C26" s="186"/>
@@ -8139,7 +7951,7 @@
       <c r="AH26" s="176"/>
       <c r="AI26" s="177"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="184"/>
       <c r="C27" s="186"/>
@@ -8176,7 +7988,7 @@
       <c r="AH27" s="176"/>
       <c r="AI27" s="177"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="184"/>
       <c r="C28" s="186"/>
@@ -8213,7 +8025,7 @@
       <c r="AH28" s="176"/>
       <c r="AI28" s="177"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38"/>
       <c r="B29" s="184"/>
       <c r="C29" s="186"/>
@@ -8250,7 +8062,7 @@
       <c r="AH29" s="176"/>
       <c r="AI29" s="177"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38"/>
       <c r="B30" s="184"/>
       <c r="C30" s="186"/>
@@ -8287,7 +8099,7 @@
       <c r="AH30" s="176"/>
       <c r="AI30" s="177"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38"/>
       <c r="B31" s="184"/>
       <c r="C31" s="186"/>
@@ -8324,7 +8136,7 @@
       <c r="AH31" s="176"/>
       <c r="AI31" s="177"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38"/>
       <c r="B32" s="184"/>
       <c r="C32" s="186"/>
@@ -8361,7 +8173,7 @@
       <c r="AH32" s="176"/>
       <c r="AI32" s="177"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38"/>
       <c r="B33" s="184"/>
       <c r="C33" s="186"/>
@@ -8588,7 +8400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8598,7 +8410,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="50" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="70" customWidth="1"/>
@@ -8733,7 +8545,7 @@
     <col min="16163" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="39" customFormat="1" ht="12" hidden="1">
+    <row r="1" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
@@ -8789,7 +8601,7 @@
       <c r="AH1" s="265"/>
       <c r="AI1" s="266"/>
     </row>
-    <row r="2" spans="1:35" s="39" customFormat="1" ht="12" hidden="1">
+    <row r="2" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="237" t="s">
         <v>3</v>
       </c>
@@ -8839,7 +8651,7 @@
       <c r="AH2" s="265"/>
       <c r="AI2" s="266"/>
     </row>
-    <row r="3" spans="1:35" s="39" customFormat="1" ht="12" hidden="1">
+    <row r="3" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="237" t="s">
         <v>5</v>
       </c>
@@ -8887,20 +8699,20 @@
       <c r="AH3" s="265"/>
       <c r="AI3" s="266"/>
     </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="41"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q5" s="42" t="s">
         <v>49</v>
       </c>
       <c r="AC5" s="41"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N6" s="42"/>
       <c r="AC6" s="41"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43"/>
       <c r="B7" s="44" t="s">
         <v>50</v>
@@ -8939,7 +8751,7 @@
       <c r="AH7" s="48"/>
       <c r="AI7" s="49"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -8976,10 +8788,10 @@
       <c r="AH8" s="52"/>
       <c r="AI8" s="49"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="43"/>
       <c r="B9" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
@@ -9015,7 +8827,7 @@
       <c r="AH9" s="53"/>
       <c r="AI9" s="43"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -9052,7 +8864,7 @@
       <c r="AH10" s="48"/>
       <c r="AI10" s="49"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="43"/>
       <c r="B11" s="54" t="s">
         <v>51</v>
@@ -9091,7 +8903,7 @@
       <c r="AH11" s="48"/>
       <c r="AI11" s="49"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="43"/>
       <c r="B12" s="45"/>
       <c r="C12" s="43" t="s">
@@ -9130,7 +8942,7 @@
       <c r="AH12" s="48"/>
       <c r="AI12" s="49"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -9167,7 +8979,7 @@
       <c r="AH13" s="48"/>
       <c r="AI13" s="49"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43"/>
       <c r="B14" s="40"/>
       <c r="C14" s="44"/>
@@ -9204,7 +9016,7 @@
       <c r="AH14" s="48"/>
       <c r="AI14" s="49"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43"/>
       <c r="B15" s="40"/>
       <c r="C15" s="43"/>
@@ -9241,7 +9053,7 @@
       <c r="AH15" s="48"/>
       <c r="AI15" s="49"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="43"/>
       <c r="B16" s="40"/>
       <c r="C16" s="43"/>
@@ -9278,7 +9090,7 @@
       <c r="AH16" s="48"/>
       <c r="AI16" s="49"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="43"/>
       <c r="B17" s="40"/>
       <c r="C17" s="43"/>
@@ -9315,7 +9127,7 @@
       <c r="AH17" s="48"/>
       <c r="AI17" s="49"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="43"/>
       <c r="B18" s="40"/>
       <c r="C18" s="43"/>
@@ -9352,7 +9164,7 @@
       <c r="AH18" s="48"/>
       <c r="AI18" s="49"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="43"/>
       <c r="B19" s="40"/>
       <c r="C19" s="43"/>
@@ -9389,7 +9201,7 @@
       <c r="AH19" s="48"/>
       <c r="AI19" s="49"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="43"/>
       <c r="B20" s="55"/>
       <c r="C20" s="45"/>
@@ -9426,7 +9238,7 @@
       <c r="AH20" s="48"/>
       <c r="AI20" s="49"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>
       <c r="B21" s="40"/>
       <c r="C21" s="43"/>
@@ -9463,7 +9275,7 @@
       <c r="AH21" s="48"/>
       <c r="AI21" s="49"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
       <c r="B22" s="40"/>
       <c r="C22" s="43"/>
@@ -9500,7 +9312,7 @@
       <c r="AH22" s="48"/>
       <c r="AI22" s="49"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
       <c r="B23" s="40"/>
       <c r="C23" s="43"/>
@@ -9537,7 +9349,7 @@
       <c r="AH23" s="48"/>
       <c r="AI23" s="49"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
       <c r="B24" s="40"/>
       <c r="C24" s="43"/>
@@ -9574,7 +9386,7 @@
       <c r="AH24" s="48"/>
       <c r="AI24" s="49"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
       <c r="B25" s="40"/>
       <c r="C25" s="43"/>
@@ -9611,7 +9423,7 @@
       <c r="AH25" s="48"/>
       <c r="AI25" s="49"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
       <c r="B26" s="40"/>
       <c r="C26" s="43"/>
@@ -9648,7 +9460,7 @@
       <c r="AH26" s="48"/>
       <c r="AI26" s="49"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="54"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -9685,7 +9497,7 @@
       <c r="AH27" s="58"/>
       <c r="AI27" s="59"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54"/>
       <c r="B28" s="40"/>
       <c r="C28" s="41"/>
@@ -9722,7 +9534,7 @@
       <c r="AH28" s="58"/>
       <c r="AI28" s="59"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54"/>
       <c r="B29" s="62"/>
       <c r="C29" s="43"/>
@@ -9759,7 +9571,7 @@
       <c r="AH29" s="58"/>
       <c r="AI29" s="59"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54"/>
       <c r="B30" s="62"/>
       <c r="C30" s="43"/>
@@ -9796,7 +9608,7 @@
       <c r="AH30" s="58"/>
       <c r="AI30" s="59"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54"/>
       <c r="B31" s="62"/>
       <c r="C31" s="43"/>
@@ -9833,7 +9645,7 @@
       <c r="AH31" s="58"/>
       <c r="AI31" s="59"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54"/>
       <c r="B32" s="62"/>
       <c r="C32" s="43"/>
@@ -9870,7 +9682,7 @@
       <c r="AH32" s="58"/>
       <c r="AI32" s="59"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -9907,7 +9719,7 @@
       <c r="AH33" s="67"/>
       <c r="AI33" s="54"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="E34" s="68"/>
       <c r="F34" s="68"/>
@@ -9939,7 +9751,7 @@
       <c r="AH34" s="75"/>
       <c r="AI34" s="71"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S35" s="71"/>
       <c r="T35" s="71"/>
       <c r="U35" s="72"/>
@@ -9958,7 +9770,7 @@
       <c r="AH35" s="78"/>
       <c r="AI35" s="71"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q36" s="79"/>
       <c r="S36" s="71"/>
       <c r="T36" s="72"/>
@@ -9978,7 +9790,7 @@
       <c r="AH36" s="78"/>
       <c r="AI36" s="71"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
       <c r="U37" s="71"/>
@@ -9997,7 +9809,7 @@
       <c r="AH37" s="78"/>
       <c r="AI37" s="71"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J38" s="68"/>
       <c r="K38" s="68"/>
       <c r="L38" s="68"/>
@@ -10011,37 +9823,37 @@
       <c r="AH38" s="78"/>
       <c r="AI38" s="71"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE39" s="71"/>
       <c r="AF39" s="76"/>
       <c r="AG39" s="77"/>
       <c r="AH39" s="78"/>
       <c r="AI39" s="71"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE40" s="71"/>
       <c r="AF40" s="76"/>
       <c r="AG40" s="76"/>
       <c r="AH40" s="78"/>
       <c r="AI40" s="71"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="68"/>
       <c r="AF41" s="80"/>
       <c r="AG41" s="80"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="68"/>
       <c r="AG42" s="80"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF43" s="80"/>
       <c r="AG43" s="80"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG44" s="80"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S45" s="68"/>
       <c r="T45" s="68"/>
       <c r="V45" s="68"/>
@@ -10054,7 +9866,7 @@
       <c r="AC45" s="68"/>
       <c r="AD45" s="68"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R46" s="68"/>
       <c r="S46" s="68"/>
       <c r="T46" s="68"/>
@@ -10069,10 +9881,10 @@
       <c r="AD46" s="68"/>
       <c r="AG46" s="80"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R47" s="68"/>
     </row>
-    <row r="48" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
       <c r="C48" s="50"/>
@@ -10105,7 +9917,7 @@
       <c r="AD48" s="50"/>
       <c r="AH48" s="79"/>
     </row>
-    <row r="49" spans="1:34" s="68" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:34" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="50"/>
@@ -10162,7 +9974,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10177,12 +9988,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="81" customFormat="1" hidden="1">
+    <row r="1" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="237" t="s">
         <v>6</v>
       </c>
@@ -10238,7 +10049,7 @@
       <c r="AH1" s="265"/>
       <c r="AI1" s="266"/>
     </row>
-    <row r="2" spans="1:35" s="81" customFormat="1" hidden="1">
+    <row r="2" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="237" t="s">
         <v>9</v>
       </c>
@@ -10288,7 +10099,7 @@
       <c r="AH2" s="265"/>
       <c r="AI2" s="266"/>
     </row>
-    <row r="3" spans="1:35" s="81" customFormat="1" hidden="1">
+    <row r="3" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="237" t="s">
         <v>11</v>
       </c>
@@ -10336,7 +10147,7 @@
       <c r="AH3" s="265"/>
       <c r="AI3" s="266"/>
     </row>
-    <row r="4" spans="1:35" s="81" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:35" s="81" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="82"/>
       <c r="AD4" s="83"/>
       <c r="AE4" s="83"/>
@@ -10345,17 +10156,17 @@
       <c r="AH4" s="84"/>
       <c r="AI4" s="84"/>
     </row>
-    <row r="5" spans="1:35" s="85" customFormat="1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:35" s="85" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="86"/>
     </row>
-    <row r="6" spans="1:35" s="85" customFormat="1" ht="6" customHeight="1">
+    <row r="6" spans="1:35" s="85" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="C6" s="86"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="267" t="s">
         <v>53</v>
       </c>
@@ -10374,76 +10185,76 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="274" t="s">
-        <v>160</v>
-      </c>
-      <c r="R7" s="275"/>
-      <c r="S7" s="275"/>
-      <c r="T7" s="276"/>
-      <c r="U7" s="279" t="s">
+      <c r="Q7" s="275" t="s">
+        <v>159</v>
+      </c>
+      <c r="R7" s="276"/>
+      <c r="S7" s="276"/>
+      <c r="T7" s="277"/>
+      <c r="U7" s="280" t="s">
         <v>54</v>
       </c>
-      <c r="V7" s="280"/>
-      <c r="W7" s="280"/>
-      <c r="X7" s="280"/>
-      <c r="Y7" s="280"/>
-      <c r="Z7" s="280"/>
-      <c r="AA7" s="280"/>
-      <c r="AB7" s="280"/>
-      <c r="AC7" s="280"/>
-      <c r="AD7" s="280"/>
-      <c r="AE7" s="280"/>
-      <c r="AF7" s="280"/>
-      <c r="AG7" s="280"/>
-      <c r="AH7" s="280"/>
-      <c r="AI7" s="281"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="401" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="272"/>
-      <c r="C8" s="272"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="277" t="s">
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="282"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="272" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="273"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="278"/>
-      <c r="N8" s="278"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="278"/>
+      <c r="F8" s="279"/>
+      <c r="G8" s="279"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="279"/>
+      <c r="L8" s="279"/>
+      <c r="M8" s="279"/>
+      <c r="N8" s="279"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="279"/>
       <c r="Q8" s="267" t="s">
         <v>56</v>
       </c>
       <c r="R8" s="270"/>
       <c r="S8" s="270"/>
       <c r="T8" s="271"/>
-      <c r="U8" s="277" t="s">
+      <c r="U8" s="278" t="s">
         <v>57</v>
       </c>
-      <c r="V8" s="278"/>
-      <c r="W8" s="278"/>
-      <c r="X8" s="278"/>
-      <c r="Y8" s="278"/>
-      <c r="Z8" s="278"/>
-      <c r="AA8" s="278"/>
-      <c r="AB8" s="278"/>
-      <c r="AC8" s="278"/>
-      <c r="AD8" s="278"/>
-      <c r="AE8" s="278"/>
-      <c r="AF8" s="278"/>
-      <c r="AG8" s="278"/>
-      <c r="AH8" s="278"/>
-      <c r="AI8" s="282"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="V8" s="279"/>
+      <c r="W8" s="279"/>
+      <c r="X8" s="279"/>
+      <c r="Y8" s="279"/>
+      <c r="Z8" s="279"/>
+      <c r="AA8" s="279"/>
+      <c r="AB8" s="279"/>
+      <c r="AC8" s="279"/>
+      <c r="AD8" s="279"/>
+      <c r="AE8" s="279"/>
+      <c r="AF8" s="279"/>
+      <c r="AG8" s="279"/>
+      <c r="AH8" s="279"/>
+      <c r="AI8" s="283"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="267" t="s">
         <v>58</v>
       </c>
@@ -10482,7 +10293,7 @@
       <c r="AH9" s="90"/>
       <c r="AI9" s="91"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92"/>
       <c r="B10" s="93" t="s">
         <v>59</v>
@@ -10521,7 +10332,7 @@
       <c r="AH10" s="94"/>
       <c r="AI10" s="95"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="96"/>
       <c r="B11" s="94"/>
       <c r="C11" s="93"/>
@@ -10558,7 +10369,7 @@
       <c r="AH11" s="94"/>
       <c r="AI11" s="95"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="97"/>
       <c r="B12" s="94"/>
       <c r="C12" s="93"/>
@@ -10595,7 +10406,7 @@
       <c r="AH12" s="94"/>
       <c r="AI12" s="95"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="98"/>
       <c r="B13" s="99"/>
       <c r="C13" s="100" t="s">
@@ -10634,7 +10445,7 @@
       <c r="AH13" s="99"/>
       <c r="AI13" s="101"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="267" t="s">
         <v>61</v>
       </c>
@@ -10673,7 +10484,7 @@
       <c r="AH14" s="90"/>
       <c r="AI14" s="91"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="96"/>
       <c r="B15" s="94" t="s">
         <v>62</v>
@@ -10712,7 +10523,7 @@
       <c r="AH15" s="94"/>
       <c r="AI15" s="95"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="96"/>
       <c r="B16" s="94" t="s">
         <v>63</v>
@@ -10751,7 +10562,7 @@
       <c r="AH16" s="94"/>
       <c r="AI16" s="95"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="102"/>
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
@@ -10788,13 +10599,13 @@
       <c r="AH17" s="99"/>
       <c r="AI17" s="101"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="283" t="s">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="284"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="285"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="92"/>
       <c r="F18" s="103"/>
       <c r="G18" s="94"/>
@@ -10807,12 +10618,12 @@
       <c r="N18" s="94"/>
       <c r="O18" s="93"/>
       <c r="P18" s="94"/>
-      <c r="Q18" s="283" t="s">
+      <c r="Q18" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="R18" s="284"/>
-      <c r="S18" s="284"/>
-      <c r="T18" s="285"/>
+      <c r="R18" s="285"/>
+      <c r="S18" s="285"/>
+      <c r="T18" s="286"/>
       <c r="U18" s="93"/>
       <c r="V18" s="93"/>
       <c r="W18" s="93"/>
@@ -10829,7 +10640,7 @@
       <c r="AH18" s="93"/>
       <c r="AI18" s="104"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="105"/>
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
@@ -10876,7 +10687,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="108"/>
       <c r="B20" s="109"/>
       <c r="C20" s="109"/>
@@ -10913,7 +10724,7 @@
       <c r="AH20" s="93"/>
       <c r="AI20" s="95"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="267" t="s">
         <v>69</v>
       </c>
@@ -10940,31 +10751,31 @@
       <c r="R21" s="270"/>
       <c r="S21" s="270"/>
       <c r="T21" s="271"/>
-      <c r="U21" s="277" t="s">
+      <c r="U21" s="278" t="s">
         <v>72</v>
       </c>
-      <c r="V21" s="278"/>
-      <c r="W21" s="278"/>
-      <c r="X21" s="278"/>
-      <c r="Y21" s="278"/>
-      <c r="Z21" s="278"/>
-      <c r="AA21" s="278"/>
-      <c r="AB21" s="278"/>
-      <c r="AC21" s="278"/>
-      <c r="AD21" s="278"/>
-      <c r="AE21" s="278"/>
-      <c r="AF21" s="278"/>
-      <c r="AG21" s="278"/>
-      <c r="AH21" s="278"/>
-      <c r="AI21" s="282"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="286" t="s">
+      <c r="V21" s="279"/>
+      <c r="W21" s="279"/>
+      <c r="X21" s="279"/>
+      <c r="Y21" s="279"/>
+      <c r="Z21" s="279"/>
+      <c r="AA21" s="279"/>
+      <c r="AB21" s="279"/>
+      <c r="AC21" s="279"/>
+      <c r="AD21" s="279"/>
+      <c r="AE21" s="279"/>
+      <c r="AF21" s="279"/>
+      <c r="AG21" s="279"/>
+      <c r="AH21" s="279"/>
+      <c r="AI21" s="283"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="275"/>
-      <c r="C22" s="275"/>
-      <c r="D22" s="276"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="112"/>
       <c r="F22" s="113"/>
       <c r="G22" s="90"/>
@@ -10977,12 +10788,12 @@
       <c r="N22" s="90"/>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
-      <c r="Q22" s="286" t="s">
+      <c r="Q22" s="287" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="275"/>
-      <c r="S22" s="275"/>
-      <c r="T22" s="276"/>
+      <c r="R22" s="276"/>
+      <c r="S22" s="276"/>
+      <c r="T22" s="277"/>
       <c r="U22" s="114"/>
       <c r="V22" s="90"/>
       <c r="W22" s="89"/>
@@ -10999,7 +10810,7 @@
       <c r="AH22" s="89"/>
       <c r="AI22" s="91"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="108"/>
       <c r="B23" s="109"/>
       <c r="C23" s="109"/>
@@ -11044,39 +10855,39 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="301" t="s">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="302" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="302"/>
-      <c r="C24" s="302"/>
-      <c r="D24" s="303"/>
-      <c r="E24" s="277" t="s">
+      <c r="B24" s="303"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="278" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="278"/>
-      <c r="G24" s="278"/>
-      <c r="H24" s="278"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="278"/>
-      <c r="K24" s="278"/>
-      <c r="L24" s="278"/>
-      <c r="M24" s="278"/>
-      <c r="N24" s="278"/>
-      <c r="O24" s="278"/>
-      <c r="P24" s="282"/>
-      <c r="Q24" s="287" t="s">
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
+      <c r="K24" s="279"/>
+      <c r="L24" s="279"/>
+      <c r="M24" s="279"/>
+      <c r="N24" s="279"/>
+      <c r="O24" s="279"/>
+      <c r="P24" s="283"/>
+      <c r="Q24" s="288" t="s">
         <v>77</v>
       </c>
-      <c r="R24" s="288"/>
-      <c r="S24" s="288"/>
-      <c r="T24" s="289"/>
-      <c r="U24" s="293">
+      <c r="R24" s="289"/>
+      <c r="S24" s="289"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="294">
         <v>3588</v>
       </c>
-      <c r="V24" s="294"/>
-      <c r="W24" s="294"/>
-      <c r="X24" s="294"/>
+      <c r="V24" s="295"/>
+      <c r="W24" s="295"/>
+      <c r="X24" s="295"/>
       <c r="Y24" s="117" t="s">
         <v>78</v>
       </c>
@@ -11091,29 +10902,29 @@
       <c r="AH24" s="117"/>
       <c r="AI24" s="119"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="297" t="s">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="298" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="298"/>
-      <c r="C25" s="298"/>
-      <c r="D25" s="299"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="300"/>
       <c r="E25" s="112"/>
       <c r="F25" s="120"/>
       <c r="G25" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="291" t="s">
+      <c r="H25" s="292" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="292"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="292"/>
-      <c r="N25" s="292"/>
-      <c r="O25" s="292"/>
-      <c r="P25" s="292"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="293"/>
+      <c r="M25" s="293"/>
+      <c r="N25" s="293"/>
+      <c r="O25" s="293"/>
+      <c r="P25" s="293"/>
       <c r="Q25" s="90" t="s">
         <v>68</v>
       </c>
@@ -11122,15 +10933,15 @@
       <c r="T25" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="U25" s="300"/>
-      <c r="V25" s="300"/>
-      <c r="W25" s="300"/>
-      <c r="X25" s="300"/>
-      <c r="Y25" s="300"/>
-      <c r="Z25" s="300"/>
-      <c r="AA25" s="300"/>
-      <c r="AB25" s="300"/>
-      <c r="AC25" s="300"/>
+      <c r="U25" s="301"/>
+      <c r="V25" s="301"/>
+      <c r="W25" s="301"/>
+      <c r="X25" s="301"/>
+      <c r="Y25" s="301"/>
+      <c r="Z25" s="301"/>
+      <c r="AA25" s="301"/>
+      <c r="AB25" s="301"/>
+      <c r="AC25" s="301"/>
       <c r="AD25" s="90" t="s">
         <v>68</v>
       </c>
@@ -11140,7 +10951,7 @@
       <c r="AH25" s="90"/>
       <c r="AI25" s="91"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="121"/>
       <c r="B26" s="122"/>
       <c r="C26" s="122"/>
@@ -11150,15 +10961,15 @@
       <c r="G26" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="296"/>
-      <c r="I26" s="296"/>
-      <c r="J26" s="296"/>
-      <c r="K26" s="296"/>
-      <c r="L26" s="296"/>
-      <c r="M26" s="296"/>
-      <c r="N26" s="296"/>
-      <c r="O26" s="296"/>
-      <c r="P26" s="296"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="297"/>
+      <c r="J26" s="297"/>
+      <c r="K26" s="297"/>
+      <c r="L26" s="297"/>
+      <c r="M26" s="297"/>
+      <c r="N26" s="297"/>
+      <c r="O26" s="297"/>
+      <c r="P26" s="297"/>
       <c r="Q26" s="94" t="s">
         <v>68</v>
       </c>
@@ -11167,15 +10978,15 @@
       <c r="T26" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="U26" s="296"/>
-      <c r="V26" s="296"/>
-      <c r="W26" s="296"/>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="296"/>
-      <c r="Z26" s="296"/>
-      <c r="AA26" s="296"/>
-      <c r="AB26" s="296"/>
-      <c r="AC26" s="296"/>
+      <c r="U26" s="297"/>
+      <c r="V26" s="297"/>
+      <c r="W26" s="297"/>
+      <c r="X26" s="297"/>
+      <c r="Y26" s="297"/>
+      <c r="Z26" s="297"/>
+      <c r="AA26" s="297"/>
+      <c r="AB26" s="297"/>
+      <c r="AC26" s="297"/>
       <c r="AD26" s="94" t="s">
         <v>68</v>
       </c>
@@ -11185,7 +10996,7 @@
       <c r="AH26" s="94"/>
       <c r="AI26" s="95"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="125"/>
       <c r="B27" s="126"/>
       <c r="C27" s="126"/>
@@ -11195,15 +11006,15 @@
       <c r="G27" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="295"/>
-      <c r="I27" s="295"/>
-      <c r="J27" s="295"/>
-      <c r="K27" s="295"/>
-      <c r="L27" s="295"/>
-      <c r="M27" s="295"/>
-      <c r="N27" s="295"/>
-      <c r="O27" s="295"/>
-      <c r="P27" s="295"/>
+      <c r="H27" s="296"/>
+      <c r="I27" s="296"/>
+      <c r="J27" s="296"/>
+      <c r="K27" s="296"/>
+      <c r="L27" s="296"/>
+      <c r="M27" s="296"/>
+      <c r="N27" s="296"/>
+      <c r="O27" s="296"/>
+      <c r="P27" s="296"/>
       <c r="Q27" s="99" t="s">
         <v>68</v>
       </c>
@@ -11212,27 +11023,27 @@
       <c r="T27" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="U27" s="295"/>
-      <c r="V27" s="295"/>
-      <c r="W27" s="295"/>
-      <c r="X27" s="295"/>
-      <c r="Y27" s="295"/>
-      <c r="Z27" s="295"/>
-      <c r="AA27" s="295"/>
-      <c r="AB27" s="295"/>
-      <c r="AC27" s="295"/>
-      <c r="AD27" s="295"/>
-      <c r="AE27" s="295"/>
-      <c r="AF27" s="295"/>
-      <c r="AG27" s="295"/>
-      <c r="AH27" s="295"/>
+      <c r="U27" s="296"/>
+      <c r="V27" s="296"/>
+      <c r="W27" s="296"/>
+      <c r="X27" s="296"/>
+      <c r="Y27" s="296"/>
+      <c r="Z27" s="296"/>
+      <c r="AA27" s="296"/>
+      <c r="AB27" s="296"/>
+      <c r="AC27" s="296"/>
+      <c r="AD27" s="296"/>
+      <c r="AE27" s="296"/>
+      <c r="AF27" s="296"/>
+      <c r="AG27" s="296"/>
+      <c r="AH27" s="296"/>
       <c r="AI27" s="101" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="290" t="s">
-        <v>161</v>
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="291" t="s">
+        <v>160</v>
       </c>
       <c r="B28" s="268"/>
       <c r="C28" s="268"/>
@@ -11269,7 +11080,7 @@
       <c r="AH28" s="90"/>
       <c r="AI28" s="91"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="129"/>
       <c r="B29" s="94"/>
       <c r="C29" s="94"/>
@@ -11306,7 +11117,7 @@
       <c r="AH29" s="94"/>
       <c r="AI29" s="95"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="129"/>
       <c r="B30" s="94"/>
       <c r="C30" s="94"/>
@@ -11343,7 +11154,7 @@
       <c r="AH30" s="94"/>
       <c r="AI30" s="95"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="129"/>
       <c r="B31" s="94"/>
       <c r="C31" s="93"/>
@@ -11380,7 +11191,7 @@
       <c r="AH31" s="94"/>
       <c r="AI31" s="95"/>
     </row>
-    <row r="32" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="102"/>
       <c r="B32" s="99"/>
       <c r="C32" s="99"/>
@@ -12000,7 +11811,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="4.83203125" style="137"/>
     <col min="5" max="5" width="7.5" style="137" customWidth="1"/>
@@ -12009,7 +11820,7 @@
     <col min="32" max="16384" width="4.83203125" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="130" customFormat="1" hidden="1">
+    <row r="1" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="237" t="s">
         <v>12</v>
       </c>
@@ -12065,7 +11876,7 @@
       <c r="AH1" s="265"/>
       <c r="AI1" s="266"/>
     </row>
-    <row r="2" spans="1:43" s="130" customFormat="1" hidden="1">
+    <row r="2" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="237" t="s">
         <v>15</v>
       </c>
@@ -12115,7 +11926,7 @@
       <c r="AH2" s="265"/>
       <c r="AI2" s="266"/>
     </row>
-    <row r="3" spans="1:43" s="130" customFormat="1" hidden="1">
+    <row r="3" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="237" t="s">
         <v>17</v>
       </c>
@@ -12163,7 +11974,7 @@
       <c r="AH3" s="265"/>
       <c r="AI3" s="266"/>
     </row>
-    <row r="4" spans="1:43" s="130" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:43" s="130" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="131"/>
       <c r="B4" s="131"/>
       <c r="C4" s="131"/>
@@ -12183,502 +11994,502 @@
       <c r="AI4" s="134"/>
       <c r="AJ4" s="135"/>
     </row>
-    <row r="5" spans="1:43" s="85" customFormat="1">
+    <row r="5" spans="1:43" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="136"/>
     </row>
-    <row r="6" spans="1:43" s="85" customFormat="1">
+    <row r="6" spans="1:43" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="C6" s="136"/>
     </row>
-    <row r="7" spans="1:43">
-      <c r="A7" s="304" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="305"/>
-      <c r="C7" s="305"/>
-      <c r="D7" s="305"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
-      <c r="L7" s="305"/>
-      <c r="M7" s="305"/>
-      <c r="N7" s="305"/>
-      <c r="O7" s="305"/>
-      <c r="P7" s="305"/>
-      <c r="Q7" s="305"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="305"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="305"/>
-      <c r="V7" s="305"/>
-      <c r="W7" s="305"/>
-      <c r="X7" s="305"/>
-      <c r="Y7" s="305"/>
-      <c r="Z7" s="305"/>
-      <c r="AA7" s="305"/>
-      <c r="AB7" s="306"/>
-      <c r="AC7" s="319" t="s">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A7" s="305" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="306"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="306"/>
+      <c r="N7" s="306"/>
+      <c r="O7" s="306"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="306"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="320" t="s">
         <v>81</v>
       </c>
-      <c r="AD7" s="305"/>
-      <c r="AE7" s="305"/>
-      <c r="AF7" s="305"/>
-      <c r="AG7" s="305"/>
-      <c r="AH7" s="305"/>
-      <c r="AI7" s="320"/>
-    </row>
-    <row r="8" spans="1:43" s="139" customFormat="1" ht="22.5" customHeight="1">
+      <c r="AD7" s="306"/>
+      <c r="AE7" s="306"/>
+      <c r="AF7" s="306"/>
+      <c r="AG7" s="306"/>
+      <c r="AH7" s="306"/>
+      <c r="AI7" s="321"/>
+    </row>
+    <row r="8" spans="1:43" s="139" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="307" t="s">
+      <c r="B8" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="308"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="309"/>
-      <c r="G8" s="307" t="s">
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="310"/>
-      <c r="I8" s="312"/>
-      <c r="J8" s="307" t="s">
+      <c r="H8" s="311"/>
+      <c r="I8" s="313"/>
+      <c r="J8" s="308" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="310"/>
-      <c r="L8" s="310"/>
-      <c r="M8" s="310"/>
-      <c r="N8" s="310"/>
-      <c r="O8" s="310"/>
-      <c r="P8" s="312"/>
-      <c r="Q8" s="313" t="s">
+      <c r="K8" s="311"/>
+      <c r="L8" s="311"/>
+      <c r="M8" s="311"/>
+      <c r="N8" s="311"/>
+      <c r="O8" s="311"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="314" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="315"/>
-      <c r="S8" s="313" t="s">
+      <c r="R8" s="316"/>
+      <c r="S8" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="T8" s="314"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="307" t="s">
+      <c r="T8" s="315"/>
+      <c r="U8" s="316"/>
+      <c r="V8" s="308" t="s">
         <v>88</v>
       </c>
-      <c r="W8" s="310"/>
-      <c r="X8" s="310"/>
-      <c r="Y8" s="310"/>
-      <c r="Z8" s="310"/>
-      <c r="AA8" s="310"/>
-      <c r="AB8" s="311"/>
-      <c r="AC8" s="316" t="s">
+      <c r="W8" s="311"/>
+      <c r="X8" s="311"/>
+      <c r="Y8" s="311"/>
+      <c r="Z8" s="311"/>
+      <c r="AA8" s="311"/>
+      <c r="AB8" s="312"/>
+      <c r="AC8" s="317" t="s">
         <v>89</v>
       </c>
-      <c r="AD8" s="317"/>
-      <c r="AE8" s="317"/>
-      <c r="AF8" s="317"/>
-      <c r="AG8" s="317"/>
-      <c r="AH8" s="318" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI8" s="318"/>
-    </row>
-    <row r="9" spans="1:43" ht="20.100000000000001" customHeight="1">
+      <c r="AD8" s="318"/>
+      <c r="AE8" s="318"/>
+      <c r="AF8" s="318"/>
+      <c r="AG8" s="318"/>
+      <c r="AH8" s="319" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI8" s="319"/>
+    </row>
+    <row r="9" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="140">
         <v>1</v>
       </c>
-      <c r="B9" s="323" t="s">
+      <c r="B9" s="324" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="325"/>
-      <c r="G9" s="323" t="s">
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="326"/>
+      <c r="G9" s="324" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="324"/>
-      <c r="I9" s="325"/>
-      <c r="J9" s="323" t="s">
+      <c r="H9" s="325"/>
+      <c r="I9" s="326"/>
+      <c r="J9" s="324" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="331"/>
-      <c r="L9" s="331"/>
-      <c r="M9" s="331"/>
-      <c r="N9" s="331"/>
-      <c r="O9" s="331"/>
-      <c r="P9" s="332"/>
-      <c r="Q9" s="369">
+      <c r="K9" s="332"/>
+      <c r="L9" s="332"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="332"/>
+      <c r="O9" s="332"/>
+      <c r="P9" s="333"/>
+      <c r="Q9" s="370">
         <v>3588</v>
       </c>
-      <c r="R9" s="370"/>
-      <c r="S9" s="373" t="s">
+      <c r="R9" s="371"/>
+      <c r="S9" s="374" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="374"/>
-      <c r="U9" s="375"/>
-      <c r="V9" s="323" t="s">
+      <c r="T9" s="375"/>
+      <c r="U9" s="376"/>
+      <c r="V9" s="324" t="s">
         <v>94</v>
       </c>
-      <c r="W9" s="324"/>
-      <c r="X9" s="324"/>
-      <c r="Y9" s="324"/>
-      <c r="Z9" s="324"/>
-      <c r="AA9" s="324"/>
-      <c r="AB9" s="329"/>
-      <c r="AC9" s="335"/>
-      <c r="AD9" s="323"/>
-      <c r="AE9" s="324"/>
-      <c r="AF9" s="324"/>
-      <c r="AG9" s="325"/>
-      <c r="AH9" s="371"/>
-      <c r="AI9" s="372"/>
-    </row>
-    <row r="10" spans="1:43" ht="20.100000000000001" customHeight="1">
+      <c r="W9" s="325"/>
+      <c r="X9" s="325"/>
+      <c r="Y9" s="325"/>
+      <c r="Z9" s="325"/>
+      <c r="AA9" s="325"/>
+      <c r="AB9" s="330"/>
+      <c r="AC9" s="336"/>
+      <c r="AD9" s="324"/>
+      <c r="AE9" s="325"/>
+      <c r="AF9" s="325"/>
+      <c r="AG9" s="326"/>
+      <c r="AH9" s="372"/>
+      <c r="AI9" s="373"/>
+    </row>
+    <row r="10" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="140">
         <v>2</v>
       </c>
-      <c r="B10" s="326"/>
-      <c r="C10" s="327"/>
-      <c r="D10" s="327"/>
-      <c r="E10" s="327"/>
-      <c r="F10" s="328"/>
-      <c r="G10" s="326"/>
-      <c r="H10" s="327"/>
-      <c r="I10" s="328"/>
-      <c r="J10" s="326"/>
-      <c r="K10" s="333"/>
-      <c r="L10" s="333"/>
-      <c r="M10" s="333"/>
-      <c r="N10" s="333"/>
-      <c r="O10" s="333"/>
-      <c r="P10" s="334"/>
-      <c r="Q10" s="341"/>
-      <c r="R10" s="342"/>
-      <c r="S10" s="346"/>
-      <c r="T10" s="347"/>
-      <c r="U10" s="348"/>
-      <c r="V10" s="326"/>
-      <c r="W10" s="327"/>
-      <c r="X10" s="327"/>
-      <c r="Y10" s="327"/>
-      <c r="Z10" s="327"/>
-      <c r="AA10" s="327"/>
-      <c r="AB10" s="330"/>
-      <c r="AC10" s="336"/>
-      <c r="AD10" s="326"/>
-      <c r="AE10" s="327"/>
-      <c r="AF10" s="327"/>
-      <c r="AG10" s="328"/>
-      <c r="AH10" s="321"/>
-      <c r="AI10" s="322"/>
+      <c r="B10" s="327"/>
+      <c r="C10" s="328"/>
+      <c r="D10" s="328"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="329"/>
+      <c r="G10" s="327"/>
+      <c r="H10" s="328"/>
+      <c r="I10" s="329"/>
+      <c r="J10" s="327"/>
+      <c r="K10" s="334"/>
+      <c r="L10" s="334"/>
+      <c r="M10" s="334"/>
+      <c r="N10" s="334"/>
+      <c r="O10" s="334"/>
+      <c r="P10" s="335"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="343"/>
+      <c r="S10" s="347"/>
+      <c r="T10" s="348"/>
+      <c r="U10" s="349"/>
+      <c r="V10" s="327"/>
+      <c r="W10" s="328"/>
+      <c r="X10" s="328"/>
+      <c r="Y10" s="328"/>
+      <c r="Z10" s="328"/>
+      <c r="AA10" s="328"/>
+      <c r="AB10" s="331"/>
+      <c r="AC10" s="337"/>
+      <c r="AD10" s="327"/>
+      <c r="AE10" s="328"/>
+      <c r="AF10" s="328"/>
+      <c r="AG10" s="329"/>
+      <c r="AH10" s="322"/>
+      <c r="AI10" s="323"/>
       <c r="AM10" s="141"/>
       <c r="AN10" s="141"/>
       <c r="AO10" s="141"/>
       <c r="AP10" s="141"/>
       <c r="AQ10" s="141"/>
     </row>
-    <row r="11" spans="1:43" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="140">
         <v>3</v>
       </c>
-      <c r="B11" s="326"/>
-      <c r="C11" s="327"/>
-      <c r="D11" s="327"/>
-      <c r="E11" s="327"/>
-      <c r="F11" s="328"/>
-      <c r="G11" s="343"/>
-      <c r="H11" s="344"/>
-      <c r="I11" s="345"/>
-      <c r="J11" s="326"/>
-      <c r="K11" s="333"/>
-      <c r="L11" s="333"/>
-      <c r="M11" s="333"/>
-      <c r="N11" s="333"/>
-      <c r="O11" s="333"/>
-      <c r="P11" s="334"/>
-      <c r="Q11" s="341"/>
-      <c r="R11" s="342"/>
-      <c r="S11" s="346"/>
-      <c r="T11" s="347"/>
-      <c r="U11" s="348"/>
-      <c r="V11" s="326"/>
-      <c r="W11" s="327"/>
-      <c r="X11" s="327"/>
-      <c r="Y11" s="327"/>
-      <c r="Z11" s="327"/>
-      <c r="AA11" s="327"/>
-      <c r="AB11" s="330"/>
-      <c r="AC11" s="336"/>
-      <c r="AD11" s="363"/>
-      <c r="AE11" s="333"/>
-      <c r="AF11" s="333"/>
-      <c r="AG11" s="334"/>
-      <c r="AH11" s="321"/>
-      <c r="AI11" s="322"/>
+      <c r="B11" s="327"/>
+      <c r="C11" s="328"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="345"/>
+      <c r="I11" s="346"/>
+      <c r="J11" s="327"/>
+      <c r="K11" s="334"/>
+      <c r="L11" s="334"/>
+      <c r="M11" s="334"/>
+      <c r="N11" s="334"/>
+      <c r="O11" s="334"/>
+      <c r="P11" s="335"/>
+      <c r="Q11" s="342"/>
+      <c r="R11" s="343"/>
+      <c r="S11" s="347"/>
+      <c r="T11" s="348"/>
+      <c r="U11" s="349"/>
+      <c r="V11" s="327"/>
+      <c r="W11" s="328"/>
+      <c r="X11" s="328"/>
+      <c r="Y11" s="328"/>
+      <c r="Z11" s="328"/>
+      <c r="AA11" s="328"/>
+      <c r="AB11" s="331"/>
+      <c r="AC11" s="337"/>
+      <c r="AD11" s="364"/>
+      <c r="AE11" s="334"/>
+      <c r="AF11" s="334"/>
+      <c r="AG11" s="335"/>
+      <c r="AH11" s="322"/>
+      <c r="AI11" s="323"/>
       <c r="AM11" s="94"/>
       <c r="AN11" s="94"/>
       <c r="AO11" s="94"/>
       <c r="AP11" s="94"/>
       <c r="AQ11" s="141"/>
     </row>
-    <row r="12" spans="1:43" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="140">
         <v>4</v>
       </c>
-      <c r="B12" s="326"/>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="328"/>
-      <c r="G12" s="343"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="345"/>
-      <c r="J12" s="326"/>
-      <c r="K12" s="333"/>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
-      <c r="N12" s="333"/>
-      <c r="O12" s="333"/>
-      <c r="P12" s="334"/>
-      <c r="Q12" s="341"/>
-      <c r="R12" s="342"/>
-      <c r="S12" s="346"/>
-      <c r="T12" s="347"/>
-      <c r="U12" s="348"/>
-      <c r="V12" s="326"/>
-      <c r="W12" s="327"/>
-      <c r="X12" s="327"/>
-      <c r="Y12" s="327"/>
-      <c r="Z12" s="327"/>
-      <c r="AA12" s="327"/>
-      <c r="AB12" s="330"/>
-      <c r="AC12" s="336"/>
-      <c r="AD12" s="363"/>
-      <c r="AE12" s="333"/>
-      <c r="AF12" s="333"/>
-      <c r="AG12" s="334"/>
-      <c r="AH12" s="321"/>
-      <c r="AI12" s="322"/>
+      <c r="B12" s="327"/>
+      <c r="C12" s="328"/>
+      <c r="D12" s="328"/>
+      <c r="E12" s="328"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="344"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="327"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="334"/>
+      <c r="M12" s="334"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="334"/>
+      <c r="P12" s="335"/>
+      <c r="Q12" s="342"/>
+      <c r="R12" s="343"/>
+      <c r="S12" s="347"/>
+      <c r="T12" s="348"/>
+      <c r="U12" s="349"/>
+      <c r="V12" s="327"/>
+      <c r="W12" s="328"/>
+      <c r="X12" s="328"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
+      <c r="AA12" s="328"/>
+      <c r="AB12" s="331"/>
+      <c r="AC12" s="337"/>
+      <c r="AD12" s="364"/>
+      <c r="AE12" s="334"/>
+      <c r="AF12" s="334"/>
+      <c r="AG12" s="335"/>
+      <c r="AH12" s="322"/>
+      <c r="AI12" s="323"/>
       <c r="AM12" s="94"/>
       <c r="AN12" s="94"/>
       <c r="AO12" s="94"/>
       <c r="AP12" s="94"/>
       <c r="AQ12" s="141"/>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="140">
         <v>5</v>
       </c>
-      <c r="B13" s="338"/>
-      <c r="C13" s="339"/>
-      <c r="D13" s="339"/>
-      <c r="E13" s="339"/>
-      <c r="F13" s="340"/>
-      <c r="G13" s="326"/>
-      <c r="H13" s="327"/>
-      <c r="I13" s="328"/>
-      <c r="J13" s="326"/>
-      <c r="K13" s="327"/>
-      <c r="L13" s="327"/>
-      <c r="M13" s="327"/>
-      <c r="N13" s="327"/>
-      <c r="O13" s="327"/>
-      <c r="P13" s="328"/>
-      <c r="Q13" s="341"/>
-      <c r="R13" s="342"/>
-      <c r="S13" s="326"/>
-      <c r="T13" s="327"/>
-      <c r="U13" s="328"/>
-      <c r="V13" s="326"/>
-      <c r="W13" s="327"/>
-      <c r="X13" s="327"/>
-      <c r="Y13" s="327"/>
-      <c r="Z13" s="327"/>
-      <c r="AA13" s="327"/>
-      <c r="AB13" s="330"/>
-      <c r="AC13" s="336"/>
-      <c r="AD13" s="363"/>
-      <c r="AE13" s="333"/>
-      <c r="AF13" s="333"/>
-      <c r="AG13" s="334"/>
-      <c r="AH13" s="321"/>
-      <c r="AI13" s="322"/>
+      <c r="B13" s="339"/>
+      <c r="C13" s="340"/>
+      <c r="D13" s="340"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="341"/>
+      <c r="G13" s="327"/>
+      <c r="H13" s="328"/>
+      <c r="I13" s="329"/>
+      <c r="J13" s="327"/>
+      <c r="K13" s="328"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="328"/>
+      <c r="P13" s="329"/>
+      <c r="Q13" s="342"/>
+      <c r="R13" s="343"/>
+      <c r="S13" s="327"/>
+      <c r="T13" s="328"/>
+      <c r="U13" s="329"/>
+      <c r="V13" s="327"/>
+      <c r="W13" s="328"/>
+      <c r="X13" s="328"/>
+      <c r="Y13" s="328"/>
+      <c r="Z13" s="328"/>
+      <c r="AA13" s="328"/>
+      <c r="AB13" s="331"/>
+      <c r="AC13" s="337"/>
+      <c r="AD13" s="364"/>
+      <c r="AE13" s="334"/>
+      <c r="AF13" s="334"/>
+      <c r="AG13" s="335"/>
+      <c r="AH13" s="322"/>
+      <c r="AI13" s="323"/>
       <c r="AM13" s="142"/>
       <c r="AN13" s="142"/>
       <c r="AO13" s="142"/>
       <c r="AP13" s="142"/>
       <c r="AQ13" s="141"/>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="140">
         <v>6</v>
       </c>
-      <c r="B14" s="338"/>
-      <c r="C14" s="339"/>
-      <c r="D14" s="339"/>
-      <c r="E14" s="339"/>
-      <c r="F14" s="340"/>
-      <c r="G14" s="326"/>
-      <c r="H14" s="327"/>
-      <c r="I14" s="328"/>
-      <c r="J14" s="326"/>
-      <c r="K14" s="327"/>
-      <c r="L14" s="327"/>
-      <c r="M14" s="327"/>
-      <c r="N14" s="327"/>
-      <c r="O14" s="327"/>
-      <c r="P14" s="328"/>
-      <c r="Q14" s="341"/>
-      <c r="R14" s="342"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="327"/>
-      <c r="U14" s="328"/>
-      <c r="V14" s="326"/>
-      <c r="W14" s="327"/>
-      <c r="X14" s="327"/>
-      <c r="Y14" s="327"/>
-      <c r="Z14" s="327"/>
-      <c r="AA14" s="327"/>
-      <c r="AB14" s="330"/>
-      <c r="AC14" s="336"/>
-      <c r="AD14" s="363"/>
-      <c r="AE14" s="333"/>
-      <c r="AF14" s="333"/>
-      <c r="AG14" s="334"/>
-      <c r="AH14" s="321"/>
-      <c r="AI14" s="322"/>
-    </row>
-    <row r="15" spans="1:43">
+      <c r="B14" s="339"/>
+      <c r="C14" s="340"/>
+      <c r="D14" s="340"/>
+      <c r="E14" s="340"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="327"/>
+      <c r="H14" s="328"/>
+      <c r="I14" s="329"/>
+      <c r="J14" s="327"/>
+      <c r="K14" s="328"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="328"/>
+      <c r="P14" s="329"/>
+      <c r="Q14" s="342"/>
+      <c r="R14" s="343"/>
+      <c r="S14" s="327"/>
+      <c r="T14" s="328"/>
+      <c r="U14" s="329"/>
+      <c r="V14" s="327"/>
+      <c r="W14" s="328"/>
+      <c r="X14" s="328"/>
+      <c r="Y14" s="328"/>
+      <c r="Z14" s="328"/>
+      <c r="AA14" s="328"/>
+      <c r="AB14" s="331"/>
+      <c r="AC14" s="337"/>
+      <c r="AD14" s="364"/>
+      <c r="AE14" s="334"/>
+      <c r="AF14" s="334"/>
+      <c r="AG14" s="335"/>
+      <c r="AH14" s="322"/>
+      <c r="AI14" s="323"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="143">
         <v>7</v>
       </c>
-      <c r="B15" s="338"/>
-      <c r="C15" s="339"/>
-      <c r="D15" s="339"/>
-      <c r="E15" s="339"/>
-      <c r="F15" s="340"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="328"/>
-      <c r="J15" s="326"/>
-      <c r="K15" s="327"/>
-      <c r="L15" s="327"/>
-      <c r="M15" s="327"/>
-      <c r="N15" s="327"/>
-      <c r="O15" s="327"/>
-      <c r="P15" s="328"/>
-      <c r="Q15" s="341"/>
-      <c r="R15" s="342"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="327"/>
-      <c r="U15" s="328"/>
-      <c r="V15" s="326"/>
-      <c r="W15" s="327"/>
-      <c r="X15" s="327"/>
-      <c r="Y15" s="327"/>
-      <c r="Z15" s="327"/>
-      <c r="AA15" s="327"/>
-      <c r="AB15" s="330"/>
-      <c r="AC15" s="336"/>
-      <c r="AD15" s="363"/>
-      <c r="AE15" s="333"/>
-      <c r="AF15" s="333"/>
-      <c r="AG15" s="334"/>
-      <c r="AH15" s="321"/>
-      <c r="AI15" s="322"/>
-    </row>
-    <row r="16" spans="1:43">
+      <c r="B15" s="339"/>
+      <c r="C15" s="340"/>
+      <c r="D15" s="340"/>
+      <c r="E15" s="340"/>
+      <c r="F15" s="341"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="327"/>
+      <c r="K15" s="328"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="328"/>
+      <c r="P15" s="329"/>
+      <c r="Q15" s="342"/>
+      <c r="R15" s="343"/>
+      <c r="S15" s="327"/>
+      <c r="T15" s="328"/>
+      <c r="U15" s="329"/>
+      <c r="V15" s="327"/>
+      <c r="W15" s="328"/>
+      <c r="X15" s="328"/>
+      <c r="Y15" s="328"/>
+      <c r="Z15" s="328"/>
+      <c r="AA15" s="328"/>
+      <c r="AB15" s="331"/>
+      <c r="AC15" s="337"/>
+      <c r="AD15" s="364"/>
+      <c r="AE15" s="334"/>
+      <c r="AF15" s="334"/>
+      <c r="AG15" s="335"/>
+      <c r="AH15" s="322"/>
+      <c r="AI15" s="323"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="143">
         <v>8</v>
       </c>
-      <c r="B16" s="338"/>
-      <c r="C16" s="339"/>
-      <c r="D16" s="339"/>
-      <c r="E16" s="339"/>
-      <c r="F16" s="340"/>
-      <c r="G16" s="326"/>
-      <c r="H16" s="327"/>
-      <c r="I16" s="328"/>
-      <c r="J16" s="326"/>
-      <c r="K16" s="327"/>
-      <c r="L16" s="327"/>
-      <c r="M16" s="327"/>
-      <c r="N16" s="327"/>
-      <c r="O16" s="327"/>
-      <c r="P16" s="328"/>
-      <c r="Q16" s="341"/>
-      <c r="R16" s="342"/>
-      <c r="S16" s="326"/>
-      <c r="T16" s="327"/>
-      <c r="U16" s="328"/>
-      <c r="V16" s="326"/>
-      <c r="W16" s="327"/>
-      <c r="X16" s="327"/>
-      <c r="Y16" s="327"/>
-      <c r="Z16" s="327"/>
-      <c r="AA16" s="327"/>
-      <c r="AB16" s="330"/>
-      <c r="AC16" s="336"/>
-      <c r="AD16" s="363"/>
-      <c r="AE16" s="333"/>
-      <c r="AF16" s="333"/>
-      <c r="AG16" s="334"/>
-      <c r="AH16" s="321"/>
-      <c r="AI16" s="322"/>
-    </row>
-    <row r="17" spans="1:47">
+      <c r="B16" s="339"/>
+      <c r="C16" s="340"/>
+      <c r="D16" s="340"/>
+      <c r="E16" s="340"/>
+      <c r="F16" s="341"/>
+      <c r="G16" s="327"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="329"/>
+      <c r="J16" s="327"/>
+      <c r="K16" s="328"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="328"/>
+      <c r="N16" s="328"/>
+      <c r="O16" s="328"/>
+      <c r="P16" s="329"/>
+      <c r="Q16" s="342"/>
+      <c r="R16" s="343"/>
+      <c r="S16" s="327"/>
+      <c r="T16" s="328"/>
+      <c r="U16" s="329"/>
+      <c r="V16" s="327"/>
+      <c r="W16" s="328"/>
+      <c r="X16" s="328"/>
+      <c r="Y16" s="328"/>
+      <c r="Z16" s="328"/>
+      <c r="AA16" s="328"/>
+      <c r="AB16" s="331"/>
+      <c r="AC16" s="337"/>
+      <c r="AD16" s="364"/>
+      <c r="AE16" s="334"/>
+      <c r="AF16" s="334"/>
+      <c r="AG16" s="335"/>
+      <c r="AH16" s="322"/>
+      <c r="AI16" s="323"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="144">
         <v>9</v>
       </c>
-      <c r="B17" s="360"/>
-      <c r="C17" s="361"/>
-      <c r="D17" s="361"/>
-      <c r="E17" s="361"/>
-      <c r="F17" s="362"/>
-      <c r="G17" s="352"/>
-      <c r="H17" s="353"/>
-      <c r="I17" s="357"/>
-      <c r="J17" s="352"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="353"/>
-      <c r="M17" s="353"/>
-      <c r="N17" s="353"/>
-      <c r="O17" s="353"/>
-      <c r="P17" s="357"/>
-      <c r="Q17" s="358"/>
-      <c r="R17" s="359"/>
-      <c r="S17" s="352"/>
-      <c r="T17" s="353"/>
-      <c r="U17" s="357"/>
-      <c r="V17" s="352"/>
-      <c r="W17" s="353"/>
-      <c r="X17" s="353"/>
-      <c r="Y17" s="353"/>
-      <c r="Z17" s="353"/>
-      <c r="AA17" s="353"/>
-      <c r="AB17" s="354"/>
-      <c r="AC17" s="337"/>
-      <c r="AD17" s="364"/>
-      <c r="AE17" s="365"/>
-      <c r="AF17" s="365"/>
-      <c r="AG17" s="366"/>
-      <c r="AH17" s="367"/>
-      <c r="AI17" s="368"/>
-    </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="355"/>
-      <c r="B18" s="356"/>
-      <c r="C18" s="356"/>
-      <c r="D18" s="356"/>
-      <c r="E18" s="356"/>
-      <c r="F18" s="356"/>
+      <c r="B17" s="361"/>
+      <c r="C17" s="362"/>
+      <c r="D17" s="362"/>
+      <c r="E17" s="362"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="354"/>
+      <c r="I17" s="358"/>
+      <c r="J17" s="353"/>
+      <c r="K17" s="354"/>
+      <c r="L17" s="354"/>
+      <c r="M17" s="354"/>
+      <c r="N17" s="354"/>
+      <c r="O17" s="354"/>
+      <c r="P17" s="358"/>
+      <c r="Q17" s="359"/>
+      <c r="R17" s="360"/>
+      <c r="S17" s="353"/>
+      <c r="T17" s="354"/>
+      <c r="U17" s="358"/>
+      <c r="V17" s="353"/>
+      <c r="W17" s="354"/>
+      <c r="X17" s="354"/>
+      <c r="Y17" s="354"/>
+      <c r="Z17" s="354"/>
+      <c r="AA17" s="354"/>
+      <c r="AB17" s="355"/>
+      <c r="AC17" s="338"/>
+      <c r="AD17" s="365"/>
+      <c r="AE17" s="366"/>
+      <c r="AF17" s="366"/>
+      <c r="AG17" s="367"/>
+      <c r="AH17" s="368"/>
+      <c r="AI17" s="369"/>
+    </row>
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="356"/>
+      <c r="B18" s="357"/>
+      <c r="C18" s="357"/>
+      <c r="D18" s="357"/>
+      <c r="E18" s="357"/>
+      <c r="F18" s="357"/>
       <c r="G18" s="145"/>
       <c r="H18" s="145"/>
       <c r="I18" s="145"/>
@@ -12702,23 +12513,23 @@
       <c r="AA18" s="145"/>
       <c r="AB18" s="145"/>
       <c r="AC18" s="82"/>
-      <c r="AD18" s="351"/>
-      <c r="AE18" s="351"/>
-      <c r="AF18" s="351"/>
-      <c r="AG18" s="351"/>
-      <c r="AH18" s="351"/>
+      <c r="AD18" s="352"/>
+      <c r="AE18" s="352"/>
+      <c r="AF18" s="352"/>
+      <c r="AG18" s="352"/>
+      <c r="AH18" s="352"/>
       <c r="AI18" s="83"/>
       <c r="AJ18" s="141"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="349" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="350"/>
-      <c r="C19" s="350"/>
-      <c r="D19" s="350"/>
-      <c r="E19" s="350"/>
-      <c r="F19" s="350"/>
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="350" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="351"/>
+      <c r="C19" s="351"/>
+      <c r="D19" s="351"/>
+      <c r="E19" s="351"/>
+      <c r="F19" s="351"/>
       <c r="G19" s="146"/>
       <c r="H19" s="145"/>
       <c r="I19" s="145"/>
@@ -12757,11 +12568,11 @@
       <c r="AT19" s="85"/>
       <c r="AU19" s="85"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="148"/>
       <c r="B20" s="141"/>
       <c r="C20" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="150"/>
       <c r="E20" s="150"/>
@@ -12805,12 +12616,12 @@
       <c r="AT20" s="85"/>
       <c r="AU20" s="85"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="148"/>
       <c r="B21" s="141"/>
       <c r="C21" s="141"/>
       <c r="D21" s="173" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="141"/>
       <c r="F21" s="149"/>
@@ -12842,7 +12653,7 @@
       <c r="AT21" s="85"/>
       <c r="AU21" s="85"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="148"/>
       <c r="B22" s="141"/>
       <c r="C22" s="149"/>
@@ -12879,7 +12690,7 @@
       <c r="AT22" s="85"/>
       <c r="AU22" s="85"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="148"/>
       <c r="B23" s="141"/>
       <c r="C23" s="149"/>
@@ -12916,7 +12727,7 @@
       <c r="AT23" s="85"/>
       <c r="AU23" s="85"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="148"/>
       <c r="B24" s="141"/>
       <c r="C24" s="141"/>
@@ -12953,7 +12764,7 @@
       <c r="AT24" s="85"/>
       <c r="AU24" s="85"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="148"/>
       <c r="B25" s="149"/>
       <c r="C25" s="81"/>
@@ -12988,7 +12799,7 @@
       <c r="AT25" s="85"/>
       <c r="AU25" s="85"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="148"/>
       <c r="B26" s="149"/>
       <c r="C26" s="141"/>
@@ -13034,7 +12845,7 @@
       <c r="AT26" s="85"/>
       <c r="AU26" s="85"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="156"/>
       <c r="B27" s="157"/>
       <c r="C27" s="158"/>
@@ -13080,7 +12891,7 @@
       <c r="AT27" s="85"/>
       <c r="AU27" s="85"/>
     </row>
-    <row r="28" spans="1:47" ht="22.5" customHeight="1">
+    <row r="28" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AN28" s="147"/>
       <c r="AO28" s="85"/>
       <c r="AP28" s="85"/>
@@ -13090,7 +12901,7 @@
       <c r="AT28" s="85"/>
       <c r="AU28" s="85"/>
     </row>
-    <row r="29" spans="1:47" ht="12.75">
+    <row r="29" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AN29" s="147"/>
       <c r="AO29" s="85"/>
       <c r="AP29" s="85"/>
@@ -13100,7 +12911,7 @@
       <c r="AT29" s="85"/>
       <c r="AU29" s="85"/>
     </row>
-    <row r="30" spans="1:47" ht="12.75">
+    <row r="30" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AN30" s="147"/>
       <c r="AO30" s="85"/>
       <c r="AP30" s="85"/>
@@ -13110,7 +12921,7 @@
       <c r="AT30" s="85"/>
       <c r="AU30" s="85"/>
     </row>
-    <row r="31" spans="1:47" ht="12.75">
+    <row r="31" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AN31" s="147"/>
       <c r="AO31" s="85"/>
       <c r="AP31" s="85"/>
@@ -13120,7 +12931,7 @@
       <c r="AT31" s="85"/>
       <c r="AU31" s="85"/>
     </row>
-    <row r="32" spans="1:47" ht="12.75">
+    <row r="32" spans="1:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AN32" s="147"/>
       <c r="AO32" s="85"/>
       <c r="AP32" s="85"/>
@@ -13130,7 +12941,7 @@
       <c r="AT32" s="85"/>
       <c r="AU32" s="85"/>
     </row>
-    <row r="33" spans="40:47" ht="12.75">
+    <row r="33" spans="40:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AN33" s="147"/>
       <c r="AO33" s="85"/>
       <c r="AP33" s="85"/>
@@ -13140,7 +12951,7 @@
       <c r="AT33" s="85"/>
       <c r="AU33" s="85"/>
     </row>
-    <row r="34" spans="40:47" ht="12.75">
+    <row r="34" spans="40:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AN34" s="147"/>
       <c r="AO34" s="85"/>
       <c r="AP34" s="85"/>
@@ -13150,7 +12961,7 @@
       <c r="AT34" s="85"/>
       <c r="AU34" s="85"/>
     </row>
-    <row r="35" spans="40:47" ht="12.75">
+    <row r="35" spans="40:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AN35" s="147"/>
       <c r="AO35" s="85"/>
       <c r="AP35" s="85"/>
@@ -13160,7 +12971,7 @@
       <c r="AT35" s="85"/>
       <c r="AU35" s="85"/>
     </row>
-    <row r="36" spans="40:47" ht="12.75">
+    <row r="36" spans="40:47" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AN36" s="147"/>
       <c r="AO36" s="85"/>
       <c r="AP36" s="85"/>
@@ -13170,7 +12981,7 @@
       <c r="AT36" s="85"/>
       <c r="AU36" s="85"/>
     </row>
-    <row r="37" spans="40:47">
+    <row r="37" spans="40:47" x14ac:dyDescent="0.2">
       <c r="AN37" s="85"/>
       <c r="AO37" s="85"/>
       <c r="AP37" s="85"/>
@@ -13180,7 +12991,7 @@
       <c r="AT37" s="85"/>
       <c r="AU37" s="85"/>
     </row>
-    <row r="38" spans="40:47">
+    <row r="38" spans="40:47" x14ac:dyDescent="0.2">
       <c r="AN38" s="85"/>
       <c r="AO38" s="85"/>
       <c r="AP38" s="85"/>
@@ -13190,7 +13001,7 @@
       <c r="AT38" s="85"/>
       <c r="AU38" s="85"/>
     </row>
-    <row r="39" spans="40:47">
+    <row r="39" spans="40:47" x14ac:dyDescent="0.2">
       <c r="AN39" s="85"/>
       <c r="AO39" s="85"/>
       <c r="AP39" s="85"/>
@@ -13337,7 +13148,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="4.83203125" style="85"/>
     <col min="3" max="3" width="8.6640625" style="85" customWidth="1"/>
@@ -13346,7 +13157,7 @@
     <col min="32" max="16384" width="4.83203125" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="45" customFormat="1" ht="12" hidden="1">
+    <row r="1" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="237" t="s">
         <v>18</v>
       </c>
@@ -13395,14 +13206,14 @@
       <c r="AD1" s="253"/>
       <c r="AE1" s="253"/>
       <c r="AF1" s="254"/>
-      <c r="AG1" s="395">
+      <c r="AG1" s="396">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="396"/>
-      <c r="AI1" s="397"/>
-    </row>
-    <row r="2" spans="1:121" s="45" customFormat="1" ht="12" hidden="1">
+      <c r="AH1" s="397"/>
+      <c r="AI1" s="398"/>
+    </row>
+    <row r="2" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
@@ -13445,14 +13256,14 @@
       <c r="AD2" s="253"/>
       <c r="AE2" s="253"/>
       <c r="AF2" s="254"/>
-      <c r="AG2" s="395" t="str">
+      <c r="AG2" s="396" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="396"/>
-      <c r="AI2" s="397"/>
-    </row>
-    <row r="3" spans="1:121" s="45" customFormat="1" ht="12" hidden="1">
+      <c r="AH2" s="397"/>
+      <c r="AI2" s="398"/>
+    </row>
+    <row r="3" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="237" t="s">
         <v>23</v>
       </c>
@@ -13493,15 +13304,15 @@
       <c r="AD3" s="253"/>
       <c r="AE3" s="253"/>
       <c r="AF3" s="254"/>
-      <c r="AG3" s="395" t="str">
+      <c r="AG3" s="396" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="396"/>
-      <c r="AI3" s="397"/>
-    </row>
-    <row r="4" spans="1:121" ht="12"/>
-    <row r="5" spans="1:121" ht="12">
+      <c r="AH3" s="397"/>
+      <c r="AI3" s="398"/>
+    </row>
+    <row r="4" spans="1:121" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:121" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="159" t="s">
         <v>52</v>
       </c>
@@ -13509,79 +13320,79 @@
       <c r="C5" s="159"/>
       <c r="D5" s="159"/>
     </row>
-    <row r="6" spans="1:121" ht="12">
+    <row r="6" spans="1:121" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="159"/>
       <c r="B6" s="159"/>
       <c r="C6" s="159"/>
       <c r="D6" s="159"/>
     </row>
-    <row r="7" spans="1:121" s="162" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:121" s="162" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="387" t="s">
+      <c r="B7" s="388" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="388"/>
-      <c r="D7" s="388"/>
-      <c r="E7" s="388"/>
-      <c r="F7" s="389"/>
-      <c r="G7" s="387" t="s">
+      <c r="C7" s="389"/>
+      <c r="D7" s="389"/>
+      <c r="E7" s="389"/>
+      <c r="F7" s="390"/>
+      <c r="G7" s="388" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="388"/>
-      <c r="I7" s="388"/>
-      <c r="J7" s="388"/>
-      <c r="K7" s="389"/>
-      <c r="L7" s="387" t="s">
+      <c r="H7" s="389"/>
+      <c r="I7" s="389"/>
+      <c r="J7" s="389"/>
+      <c r="K7" s="390"/>
+      <c r="L7" s="388" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="388"/>
-      <c r="N7" s="388"/>
-      <c r="O7" s="388"/>
-      <c r="P7" s="389"/>
+      <c r="M7" s="389"/>
+      <c r="N7" s="389"/>
+      <c r="O7" s="389"/>
+      <c r="P7" s="390"/>
       <c r="Q7" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="R7" s="391" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="390" t="s">
+      <c r="S7" s="391"/>
+      <c r="T7" s="391"/>
+      <c r="U7" s="391"/>
+      <c r="V7" s="399" t="s">
         <v>100</v>
       </c>
-      <c r="S7" s="390"/>
-      <c r="T7" s="390"/>
-      <c r="U7" s="390"/>
-      <c r="V7" s="398" t="s">
+      <c r="W7" s="399"/>
+      <c r="X7" s="400" t="s">
         <v>101</v>
       </c>
-      <c r="W7" s="398"/>
-      <c r="X7" s="399" t="s">
+      <c r="Y7" s="401"/>
+      <c r="Z7" s="388" t="s">
         <v>102</v>
       </c>
-      <c r="Y7" s="400"/>
-      <c r="Z7" s="387" t="s">
+      <c r="AA7" s="390"/>
+      <c r="AB7" s="388" t="s">
         <v>103</v>
       </c>
-      <c r="AA7" s="389"/>
-      <c r="AB7" s="387" t="s">
+      <c r="AC7" s="390"/>
+      <c r="AD7" s="388" t="s">
         <v>104</v>
       </c>
-      <c r="AC7" s="389"/>
-      <c r="AD7" s="387" t="s">
+      <c r="AE7" s="390"/>
+      <c r="AF7" s="388" t="s">
         <v>105</v>
       </c>
-      <c r="AE7" s="389"/>
-      <c r="AF7" s="387" t="s">
+      <c r="AG7" s="389"/>
+      <c r="AH7" s="390"/>
+      <c r="AI7" s="388" t="s">
         <v>106</v>
       </c>
-      <c r="AG7" s="388"/>
-      <c r="AH7" s="389"/>
-      <c r="AI7" s="387" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ7" s="388"/>
-      <c r="AK7" s="388"/>
-      <c r="AL7" s="388"/>
-      <c r="AM7" s="388"/>
-      <c r="AN7" s="389"/>
+      <c r="AJ7" s="389"/>
+      <c r="AK7" s="389"/>
+      <c r="AL7" s="389"/>
+      <c r="AM7" s="389"/>
+      <c r="AN7" s="390"/>
       <c r="BN7" s="163"/>
       <c r="BO7" s="163"/>
       <c r="BP7" s="163"/>
@@ -13639,73 +13450,73 @@
       <c r="DP7" s="164"/>
       <c r="DQ7" s="164"/>
     </row>
-    <row r="8" spans="1:121" ht="15" customHeight="1">
+    <row r="8" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="165">
         <v>1</v>
       </c>
-      <c r="B8" s="377" t="s">
+      <c r="B8" s="378" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="379"/>
+      <c r="D8" s="379"/>
+      <c r="E8" s="379"/>
+      <c r="F8" s="380"/>
+      <c r="G8" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="378"/>
-      <c r="D8" s="378"/>
-      <c r="E8" s="378"/>
-      <c r="F8" s="379"/>
-      <c r="G8" s="376" t="s">
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="309"/>
+      <c r="K8" s="310"/>
+      <c r="L8" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="308"/>
-      <c r="I8" s="308"/>
-      <c r="J8" s="308"/>
-      <c r="K8" s="309"/>
-      <c r="L8" s="376" t="s">
+      <c r="M8" s="309"/>
+      <c r="N8" s="309"/>
+      <c r="O8" s="309"/>
+      <c r="P8" s="310"/>
+      <c r="Q8" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="308"/>
-      <c r="N8" s="308"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="309"/>
-      <c r="Q8" s="166" t="s">
+      <c r="R8" s="377" t="s">
         <v>111</v>
       </c>
-      <c r="R8" s="376" t="s">
-        <v>112</v>
-      </c>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="309"/>
-      <c r="V8" s="380">
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="310"/>
+      <c r="V8" s="381">
         <v>10</v>
       </c>
-      <c r="W8" s="381"/>
-      <c r="X8" s="382" t="s">
+      <c r="W8" s="382"/>
+      <c r="X8" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="383"/>
-      <c r="Z8" s="376" t="s">
+      <c r="Y8" s="384"/>
+      <c r="Z8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="309"/>
-      <c r="AB8" s="376" t="s">
+      <c r="AA8" s="310"/>
+      <c r="AB8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="309"/>
-      <c r="AD8" s="382" t="s">
+      <c r="AC8" s="310"/>
+      <c r="AD8" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="383"/>
-      <c r="AF8" s="376" t="s">
+      <c r="AE8" s="384"/>
+      <c r="AF8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="308"/>
-      <c r="AH8" s="309"/>
-      <c r="AI8" s="377" t="s">
+      <c r="AG8" s="309"/>
+      <c r="AH8" s="310"/>
+      <c r="AI8" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ8" s="378"/>
-      <c r="AK8" s="378"/>
-      <c r="AL8" s="378"/>
-      <c r="AM8" s="378"/>
-      <c r="AN8" s="379"/>
+      <c r="AJ8" s="379"/>
+      <c r="AK8" s="379"/>
+      <c r="AL8" s="379"/>
+      <c r="AM8" s="379"/>
+      <c r="AN8" s="380"/>
       <c r="AS8" s="167"/>
       <c r="AT8" s="167"/>
       <c r="AU8" s="168"/>
@@ -13767,74 +13578,74 @@
       <c r="DP8" s="149"/>
       <c r="DQ8" s="149"/>
     </row>
-    <row r="9" spans="1:121" ht="15" customHeight="1">
+    <row r="9" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="165">
         <v>2</v>
       </c>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="378" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="379"/>
+      <c r="D9" s="379"/>
+      <c r="E9" s="379"/>
+      <c r="F9" s="380"/>
+      <c r="G9" s="377" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="378"/>
-      <c r="D9" s="378"/>
-      <c r="E9" s="378"/>
-      <c r="F9" s="379"/>
-      <c r="G9" s="376" t="s">
+      <c r="H9" s="309"/>
+      <c r="I9" s="309"/>
+      <c r="J9" s="309"/>
+      <c r="K9" s="310"/>
+      <c r="L9" s="377" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="309"/>
+      <c r="N9" s="309"/>
+      <c r="O9" s="309"/>
+      <c r="P9" s="310"/>
+      <c r="Q9" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="377" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="308"/>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="309"/>
-      <c r="L9" s="376" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="308"/>
-      <c r="N9" s="308"/>
-      <c r="O9" s="308"/>
-      <c r="P9" s="309"/>
-      <c r="Q9" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="R9" s="376" t="s">
-        <v>115</v>
-      </c>
-      <c r="S9" s="308"/>
-      <c r="T9" s="308"/>
-      <c r="U9" s="309"/>
-      <c r="V9" s="380">
+      <c r="S9" s="309"/>
+      <c r="T9" s="309"/>
+      <c r="U9" s="310"/>
+      <c r="V9" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W9" s="381"/>
-      <c r="X9" s="382" t="s">
+      <c r="W9" s="382"/>
+      <c r="X9" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="383"/>
-      <c r="Z9" s="376" t="s">
+      <c r="Y9" s="384"/>
+      <c r="Z9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="309"/>
-      <c r="AB9" s="376" t="s">
+      <c r="AA9" s="310"/>
+      <c r="AB9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="309"/>
-      <c r="AD9" s="382" t="s">
+      <c r="AC9" s="310"/>
+      <c r="AD9" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE9" s="383"/>
-      <c r="AF9" s="376" t="s">
+      <c r="AE9" s="384"/>
+      <c r="AF9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="308"/>
-      <c r="AH9" s="309"/>
-      <c r="AI9" s="377" t="s">
+      <c r="AG9" s="309"/>
+      <c r="AH9" s="310"/>
+      <c r="AI9" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ9" s="378"/>
-      <c r="AK9" s="378"/>
-      <c r="AL9" s="378"/>
-      <c r="AM9" s="378"/>
-      <c r="AN9" s="379"/>
+      <c r="AJ9" s="379"/>
+      <c r="AK9" s="379"/>
+      <c r="AL9" s="379"/>
+      <c r="AM9" s="379"/>
+      <c r="AN9" s="380"/>
       <c r="AS9" s="167"/>
       <c r="AT9" s="167"/>
       <c r="AU9" s="168"/>
@@ -13896,74 +13707,74 @@
       <c r="DP9" s="149"/>
       <c r="DQ9" s="149"/>
     </row>
-    <row r="10" spans="1:121" ht="15" customHeight="1">
+    <row r="10" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="165">
         <v>3</v>
       </c>
-      <c r="B10" s="377" t="s">
+      <c r="B10" s="378" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="379"/>
+      <c r="D10" s="379"/>
+      <c r="E10" s="379"/>
+      <c r="F10" s="380"/>
+      <c r="G10" s="377" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="378"/>
-      <c r="D10" s="378"/>
-      <c r="E10" s="378"/>
-      <c r="F10" s="379"/>
-      <c r="G10" s="376" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="308"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="309"/>
-      <c r="L10" s="376" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" s="308"/>
-      <c r="N10" s="308"/>
-      <c r="O10" s="308"/>
-      <c r="P10" s="309"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="310"/>
+      <c r="L10" s="377" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="309"/>
+      <c r="N10" s="309"/>
+      <c r="O10" s="309"/>
+      <c r="P10" s="310"/>
       <c r="Q10" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="R10" s="376" t="s">
-        <v>115</v>
-      </c>
-      <c r="S10" s="308"/>
-      <c r="T10" s="308"/>
-      <c r="U10" s="309"/>
-      <c r="V10" s="380">
+        <v>110</v>
+      </c>
+      <c r="R10" s="377" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="309"/>
+      <c r="T10" s="309"/>
+      <c r="U10" s="310"/>
+      <c r="V10" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="381"/>
-      <c r="X10" s="382" t="s">
+      <c r="W10" s="382"/>
+      <c r="X10" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="383"/>
-      <c r="Z10" s="376" t="s">
+      <c r="Y10" s="384"/>
+      <c r="Z10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="309"/>
-      <c r="AB10" s="376" t="s">
+      <c r="AA10" s="310"/>
+      <c r="AB10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="309"/>
-      <c r="AD10" s="382" t="s">
+      <c r="AC10" s="310"/>
+      <c r="AD10" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE10" s="383"/>
-      <c r="AF10" s="376" t="s">
+      <c r="AE10" s="384"/>
+      <c r="AF10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" s="308"/>
-      <c r="AH10" s="309"/>
-      <c r="AI10" s="377" t="s">
+      <c r="AG10" s="309"/>
+      <c r="AH10" s="310"/>
+      <c r="AI10" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ10" s="378"/>
-      <c r="AK10" s="378"/>
-      <c r="AL10" s="378"/>
-      <c r="AM10" s="378"/>
-      <c r="AN10" s="379"/>
+      <c r="AJ10" s="379"/>
+      <c r="AK10" s="379"/>
+      <c r="AL10" s="379"/>
+      <c r="AM10" s="379"/>
+      <c r="AN10" s="380"/>
       <c r="AS10" s="167"/>
       <c r="AT10" s="167"/>
       <c r="AU10" s="168"/>
@@ -14025,74 +13836,74 @@
       <c r="DP10" s="149"/>
       <c r="DQ10" s="149"/>
     </row>
-    <row r="11" spans="1:121" ht="15" customHeight="1">
+    <row r="11" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="165">
         <v>4</v>
       </c>
-      <c r="B11" s="377" t="s">
+      <c r="B11" s="378" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="379"/>
+      <c r="D11" s="379"/>
+      <c r="E11" s="379"/>
+      <c r="F11" s="380"/>
+      <c r="G11" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="378"/>
-      <c r="D11" s="378"/>
-      <c r="E11" s="378"/>
-      <c r="F11" s="379"/>
-      <c r="G11" s="376" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="308"/>
-      <c r="I11" s="308"/>
-      <c r="J11" s="308"/>
-      <c r="K11" s="309"/>
-      <c r="L11" s="376" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" s="308"/>
-      <c r="N11" s="308"/>
-      <c r="O11" s="308"/>
-      <c r="P11" s="309"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="310"/>
+      <c r="L11" s="377" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="309"/>
+      <c r="N11" s="309"/>
+      <c r="O11" s="309"/>
+      <c r="P11" s="310"/>
       <c r="Q11" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="R11" s="376" t="s">
-        <v>115</v>
-      </c>
-      <c r="S11" s="308"/>
-      <c r="T11" s="308"/>
-      <c r="U11" s="309"/>
-      <c r="V11" s="380">
+        <v>110</v>
+      </c>
+      <c r="R11" s="377" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" s="309"/>
+      <c r="T11" s="309"/>
+      <c r="U11" s="310"/>
+      <c r="V11" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="381"/>
-      <c r="X11" s="382" t="s">
+      <c r="W11" s="382"/>
+      <c r="X11" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="383"/>
-      <c r="Z11" s="376" t="s">
+      <c r="Y11" s="384"/>
+      <c r="Z11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" s="309"/>
-      <c r="AB11" s="376" t="s">
+      <c r="AA11" s="310"/>
+      <c r="AB11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="309"/>
-      <c r="AD11" s="382" t="s">
+      <c r="AC11" s="310"/>
+      <c r="AD11" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="383"/>
-      <c r="AF11" s="376" t="s">
+      <c r="AE11" s="384"/>
+      <c r="AF11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG11" s="308"/>
-      <c r="AH11" s="309"/>
-      <c r="AI11" s="377" t="s">
+      <c r="AG11" s="309"/>
+      <c r="AH11" s="310"/>
+      <c r="AI11" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ11" s="378"/>
-      <c r="AK11" s="378"/>
-      <c r="AL11" s="378"/>
-      <c r="AM11" s="378"/>
-      <c r="AN11" s="379"/>
+      <c r="AJ11" s="379"/>
+      <c r="AK11" s="379"/>
+      <c r="AL11" s="379"/>
+      <c r="AM11" s="379"/>
+      <c r="AN11" s="380"/>
       <c r="AS11" s="167"/>
       <c r="AT11" s="167"/>
       <c r="AU11" s="168"/>
@@ -14154,73 +13965,73 @@
       <c r="DP11" s="149"/>
       <c r="DQ11" s="149"/>
     </row>
-    <row r="12" spans="1:121" ht="15" customHeight="1">
+    <row r="12" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="165">
         <v>5</v>
       </c>
-      <c r="B12" s="377" t="s">
+      <c r="B12" s="378" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="379"/>
+      <c r="D12" s="379"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="377" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="378"/>
-      <c r="D12" s="378"/>
-      <c r="E12" s="378"/>
-      <c r="F12" s="379"/>
-      <c r="G12" s="376" t="s">
+      <c r="H12" s="309"/>
+      <c r="I12" s="309"/>
+      <c r="J12" s="309"/>
+      <c r="K12" s="310"/>
+      <c r="L12" s="377" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="308"/>
-      <c r="I12" s="308"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="376" t="s">
+      <c r="M12" s="309"/>
+      <c r="N12" s="309"/>
+      <c r="O12" s="309"/>
+      <c r="P12" s="310"/>
+      <c r="Q12" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="377" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="308"/>
-      <c r="N12" s="308"/>
-      <c r="O12" s="308"/>
-      <c r="P12" s="309"/>
-      <c r="Q12" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="R12" s="376" t="s">
+      <c r="S12" s="309"/>
+      <c r="T12" s="309"/>
+      <c r="U12" s="310"/>
+      <c r="V12" s="381">
+        <v>10</v>
+      </c>
+      <c r="W12" s="382"/>
+      <c r="X12" s="383" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="384"/>
+      <c r="Z12" s="377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA12" s="310"/>
+      <c r="AB12" s="377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="310"/>
+      <c r="AD12" s="383" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE12" s="384"/>
+      <c r="AF12" s="377" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="308"/>
-      <c r="T12" s="308"/>
-      <c r="U12" s="309"/>
-      <c r="V12" s="380">
-        <v>10</v>
-      </c>
-      <c r="W12" s="381"/>
-      <c r="X12" s="382" t="s">
+      <c r="AG12" s="309"/>
+      <c r="AH12" s="310"/>
+      <c r="AI12" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="383"/>
-      <c r="Z12" s="376" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA12" s="309"/>
-      <c r="AB12" s="376" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC12" s="309"/>
-      <c r="AD12" s="382" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE12" s="383"/>
-      <c r="AF12" s="376" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG12" s="308"/>
-      <c r="AH12" s="309"/>
-      <c r="AI12" s="377" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ12" s="378"/>
-      <c r="AK12" s="378"/>
-      <c r="AL12" s="378"/>
-      <c r="AM12" s="378"/>
-      <c r="AN12" s="379"/>
+      <c r="AJ12" s="379"/>
+      <c r="AK12" s="379"/>
+      <c r="AL12" s="379"/>
+      <c r="AM12" s="379"/>
+      <c r="AN12" s="380"/>
       <c r="AS12" s="167"/>
       <c r="AT12" s="167"/>
       <c r="AU12" s="168"/>
@@ -14282,73 +14093,73 @@
       <c r="DP12" s="149"/>
       <c r="DQ12" s="149"/>
     </row>
-    <row r="13" spans="1:121" ht="15" customHeight="1">
+    <row r="13" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="165">
         <v>6</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B13" s="378" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="379"/>
+      <c r="D13" s="379"/>
+      <c r="E13" s="379"/>
+      <c r="F13" s="380"/>
+      <c r="G13" s="377" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="378"/>
-      <c r="D13" s="378"/>
-      <c r="E13" s="378"/>
-      <c r="F13" s="379"/>
-      <c r="G13" s="376" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
-      <c r="J13" s="308"/>
-      <c r="K13" s="309"/>
-      <c r="L13" s="376" t="s">
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="377" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="309"/>
+      <c r="N13" s="309"/>
+      <c r="O13" s="309"/>
+      <c r="P13" s="310"/>
+      <c r="Q13" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="377" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="308"/>
-      <c r="N13" s="308"/>
-      <c r="O13" s="308"/>
-      <c r="P13" s="309"/>
-      <c r="Q13" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="R13" s="376" t="s">
+      <c r="S13" s="309"/>
+      <c r="T13" s="309"/>
+      <c r="U13" s="310"/>
+      <c r="V13" s="381">
+        <v>10</v>
+      </c>
+      <c r="W13" s="382"/>
+      <c r="X13" s="383" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="384"/>
+      <c r="Z13" s="377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="310"/>
+      <c r="AB13" s="377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC13" s="310"/>
+      <c r="AD13" s="383" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13" s="384"/>
+      <c r="AF13" s="377" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="308"/>
-      <c r="T13" s="308"/>
-      <c r="U13" s="309"/>
-      <c r="V13" s="380">
-        <v>10</v>
-      </c>
-      <c r="W13" s="381"/>
-      <c r="X13" s="382" t="s">
+      <c r="AG13" s="309"/>
+      <c r="AH13" s="310"/>
+      <c r="AI13" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="383"/>
-      <c r="Z13" s="376" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA13" s="309"/>
-      <c r="AB13" s="376" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC13" s="309"/>
-      <c r="AD13" s="382" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE13" s="383"/>
-      <c r="AF13" s="376" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG13" s="308"/>
-      <c r="AH13" s="309"/>
-      <c r="AI13" s="377" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ13" s="378"/>
-      <c r="AK13" s="378"/>
-      <c r="AL13" s="378"/>
-      <c r="AM13" s="378"/>
-      <c r="AN13" s="379"/>
+      <c r="AJ13" s="379"/>
+      <c r="AK13" s="379"/>
+      <c r="AL13" s="379"/>
+      <c r="AM13" s="379"/>
+      <c r="AN13" s="380"/>
       <c r="AS13" s="167"/>
       <c r="AT13" s="167"/>
       <c r="AU13" s="168"/>
@@ -14410,73 +14221,73 @@
       <c r="DP13" s="149"/>
       <c r="DQ13" s="149"/>
     </row>
-    <row r="14" spans="1:121" ht="15" customHeight="1">
+    <row r="14" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="165">
         <v>7</v>
       </c>
-      <c r="B14" s="377" t="s">
+      <c r="B14" s="378" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="379"/>
+      <c r="D14" s="379"/>
+      <c r="E14" s="379"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="377" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="378"/>
-      <c r="D14" s="378"/>
-      <c r="E14" s="378"/>
-      <c r="F14" s="379"/>
-      <c r="G14" s="376" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="308"/>
-      <c r="I14" s="308"/>
-      <c r="J14" s="308"/>
-      <c r="K14" s="309"/>
-      <c r="L14" s="376" t="s">
+      <c r="H14" s="309"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="310"/>
+      <c r="L14" s="377" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="309"/>
+      <c r="N14" s="309"/>
+      <c r="O14" s="309"/>
+      <c r="P14" s="310"/>
+      <c r="Q14" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="308"/>
-      <c r="N14" s="308"/>
-      <c r="O14" s="308"/>
-      <c r="P14" s="309"/>
-      <c r="Q14" s="166" t="s">
+      <c r="R14" s="377" t="s">
         <v>111</v>
       </c>
-      <c r="R14" s="376" t="s">
-        <v>112</v>
-      </c>
-      <c r="S14" s="308"/>
-      <c r="T14" s="308"/>
-      <c r="U14" s="309"/>
-      <c r="V14" s="380">
+      <c r="S14" s="309"/>
+      <c r="T14" s="309"/>
+      <c r="U14" s="310"/>
+      <c r="V14" s="381">
         <v>11</v>
       </c>
-      <c r="W14" s="381"/>
-      <c r="X14" s="382" t="s">
+      <c r="W14" s="382"/>
+      <c r="X14" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="383"/>
-      <c r="Z14" s="376" t="s">
+      <c r="Y14" s="384"/>
+      <c r="Z14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="309"/>
-      <c r="AB14" s="376" t="s">
+      <c r="AA14" s="310"/>
+      <c r="AB14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="309"/>
-      <c r="AD14" s="382" t="s">
+      <c r="AC14" s="310"/>
+      <c r="AD14" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE14" s="383"/>
-      <c r="AF14" s="376" t="s">
+      <c r="AE14" s="384"/>
+      <c r="AF14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG14" s="308"/>
-      <c r="AH14" s="309"/>
-      <c r="AI14" s="377" t="s">
+      <c r="AG14" s="309"/>
+      <c r="AH14" s="310"/>
+      <c r="AI14" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ14" s="378"/>
-      <c r="AK14" s="378"/>
-      <c r="AL14" s="378"/>
-      <c r="AM14" s="378"/>
-      <c r="AN14" s="379"/>
+      <c r="AJ14" s="379"/>
+      <c r="AK14" s="379"/>
+      <c r="AL14" s="379"/>
+      <c r="AM14" s="379"/>
+      <c r="AN14" s="380"/>
       <c r="AS14" s="167"/>
       <c r="AT14" s="167"/>
       <c r="AU14" s="168"/>
@@ -14538,73 +14349,73 @@
       <c r="DP14" s="149"/>
       <c r="DQ14" s="149"/>
     </row>
-    <row r="15" spans="1:121" ht="15" customHeight="1">
+    <row r="15" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="165">
         <v>8</v>
       </c>
-      <c r="B15" s="377" t="s">
+      <c r="B15" s="378" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="379"/>
+      <c r="D15" s="379"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="377" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="378"/>
-      <c r="D15" s="378"/>
-      <c r="E15" s="378"/>
-      <c r="F15" s="379"/>
-      <c r="G15" s="376" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="308"/>
-      <c r="I15" s="308"/>
-      <c r="J15" s="308"/>
-      <c r="K15" s="309"/>
-      <c r="L15" s="376" t="s">
+      <c r="H15" s="309"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="309"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="377" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="309"/>
+      <c r="N15" s="309"/>
+      <c r="O15" s="309"/>
+      <c r="P15" s="310"/>
+      <c r="Q15" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="308"/>
-      <c r="N15" s="308"/>
-      <c r="O15" s="308"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="166" t="s">
+      <c r="R15" s="377" t="s">
         <v>111</v>
       </c>
-      <c r="R15" s="376" t="s">
-        <v>112</v>
-      </c>
-      <c r="S15" s="308"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="309"/>
-      <c r="V15" s="380">
+      <c r="S15" s="309"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="310"/>
+      <c r="V15" s="381">
         <v>11</v>
       </c>
-      <c r="W15" s="381"/>
-      <c r="X15" s="382" t="s">
+      <c r="W15" s="382"/>
+      <c r="X15" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="383"/>
-      <c r="Z15" s="376" t="s">
+      <c r="Y15" s="384"/>
+      <c r="Z15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" s="309"/>
-      <c r="AB15" s="376" t="s">
+      <c r="AA15" s="310"/>
+      <c r="AB15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="309"/>
-      <c r="AD15" s="382" t="s">
+      <c r="AC15" s="310"/>
+      <c r="AD15" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE15" s="383"/>
-      <c r="AF15" s="376" t="s">
+      <c r="AE15" s="384"/>
+      <c r="AF15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="308"/>
-      <c r="AH15" s="309"/>
-      <c r="AI15" s="377" t="s">
+      <c r="AG15" s="309"/>
+      <c r="AH15" s="310"/>
+      <c r="AI15" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ15" s="378"/>
-      <c r="AK15" s="378"/>
-      <c r="AL15" s="378"/>
-      <c r="AM15" s="378"/>
-      <c r="AN15" s="379"/>
+      <c r="AJ15" s="379"/>
+      <c r="AK15" s="379"/>
+      <c r="AL15" s="379"/>
+      <c r="AM15" s="379"/>
+      <c r="AN15" s="380"/>
       <c r="AS15" s="167"/>
       <c r="AT15" s="167"/>
       <c r="AU15" s="168"/>
@@ -14666,74 +14477,74 @@
       <c r="DP15" s="149"/>
       <c r="DQ15" s="149"/>
     </row>
-    <row r="16" spans="1:121" ht="15" customHeight="1">
+    <row r="16" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="165">
         <v>9</v>
       </c>
-      <c r="B16" s="377" t="s">
+      <c r="B16" s="378" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="379"/>
+      <c r="D16" s="379"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="377" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="376" t="s">
+      <c r="H16" s="309"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="377" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="308"/>
-      <c r="I16" s="308"/>
-      <c r="J16" s="308"/>
-      <c r="K16" s="309"/>
-      <c r="L16" s="376" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="308"/>
-      <c r="N16" s="308"/>
-      <c r="O16" s="308"/>
-      <c r="P16" s="309"/>
+      <c r="M16" s="309"/>
+      <c r="N16" s="309"/>
+      <c r="O16" s="309"/>
+      <c r="P16" s="310"/>
       <c r="Q16" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" s="376" t="s">
-        <v>115</v>
-      </c>
-      <c r="S16" s="308"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="309"/>
-      <c r="V16" s="380">
+        <v>110</v>
+      </c>
+      <c r="R16" s="377" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" s="309"/>
+      <c r="T16" s="309"/>
+      <c r="U16" s="310"/>
+      <c r="V16" s="381">
         <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="381"/>
-      <c r="X16" s="382" t="s">
+      <c r="W16" s="382"/>
+      <c r="X16" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y16" s="383"/>
-      <c r="Z16" s="376" t="s">
+      <c r="Y16" s="384"/>
+      <c r="Z16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="309"/>
-      <c r="AB16" s="376" t="s">
+      <c r="AA16" s="310"/>
+      <c r="AB16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="309"/>
-      <c r="AD16" s="382" t="s">
+      <c r="AC16" s="310"/>
+      <c r="AD16" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE16" s="383"/>
-      <c r="AF16" s="376" t="s">
+      <c r="AE16" s="384"/>
+      <c r="AF16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG16" s="308"/>
-      <c r="AH16" s="309"/>
-      <c r="AI16" s="377" t="s">
+      <c r="AG16" s="309"/>
+      <c r="AH16" s="310"/>
+      <c r="AI16" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ16" s="378"/>
-      <c r="AK16" s="378"/>
-      <c r="AL16" s="378"/>
-      <c r="AM16" s="378"/>
-      <c r="AN16" s="379"/>
+      <c r="AJ16" s="379"/>
+      <c r="AK16" s="379"/>
+      <c r="AL16" s="379"/>
+      <c r="AM16" s="379"/>
+      <c r="AN16" s="380"/>
       <c r="AS16" s="167"/>
       <c r="AT16" s="167"/>
       <c r="AU16" s="168"/>
@@ -14795,74 +14606,74 @@
       <c r="DP16" s="149"/>
       <c r="DQ16" s="149"/>
     </row>
-    <row r="17" spans="1:121" ht="15" customHeight="1">
+    <row r="17" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="165">
         <v>10</v>
       </c>
-      <c r="B17" s="377" t="s">
+      <c r="B17" s="378" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="379"/>
+      <c r="D17" s="379"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="380"/>
+      <c r="G17" s="377" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="378"/>
-      <c r="D17" s="378"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="379"/>
-      <c r="G17" s="376" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="308"/>
-      <c r="I17" s="308"/>
-      <c r="J17" s="308"/>
-      <c r="K17" s="309"/>
-      <c r="L17" s="376" t="s">
-        <v>133</v>
-      </c>
-      <c r="M17" s="308"/>
-      <c r="N17" s="308"/>
-      <c r="O17" s="308"/>
-      <c r="P17" s="309"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="309"/>
+      <c r="J17" s="309"/>
+      <c r="K17" s="310"/>
+      <c r="L17" s="377" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="309"/>
+      <c r="N17" s="309"/>
+      <c r="O17" s="309"/>
+      <c r="P17" s="310"/>
       <c r="Q17" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="R17" s="376" t="s">
-        <v>115</v>
-      </c>
-      <c r="S17" s="308"/>
-      <c r="T17" s="308"/>
-      <c r="U17" s="309"/>
-      <c r="V17" s="380">
+        <v>110</v>
+      </c>
+      <c r="R17" s="377" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="309"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="310"/>
+      <c r="V17" s="381">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="381"/>
-      <c r="X17" s="382" t="s">
+      <c r="W17" s="382"/>
+      <c r="X17" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="383"/>
-      <c r="Z17" s="376" t="s">
+      <c r="Y17" s="384"/>
+      <c r="Z17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="309"/>
-      <c r="AB17" s="376" t="s">
+      <c r="AA17" s="310"/>
+      <c r="AB17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="309"/>
-      <c r="AD17" s="382" t="s">
+      <c r="AC17" s="310"/>
+      <c r="AD17" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE17" s="383"/>
-      <c r="AF17" s="376" t="s">
+      <c r="AE17" s="384"/>
+      <c r="AF17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG17" s="308"/>
-      <c r="AH17" s="309"/>
-      <c r="AI17" s="377" t="s">
+      <c r="AG17" s="309"/>
+      <c r="AH17" s="310"/>
+      <c r="AI17" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ17" s="378"/>
-      <c r="AK17" s="378"/>
-      <c r="AL17" s="378"/>
-      <c r="AM17" s="378"/>
-      <c r="AN17" s="379"/>
+      <c r="AJ17" s="379"/>
+      <c r="AK17" s="379"/>
+      <c r="AL17" s="379"/>
+      <c r="AM17" s="379"/>
+      <c r="AN17" s="380"/>
       <c r="AS17" s="167"/>
       <c r="AT17" s="167"/>
       <c r="AU17" s="168"/>
@@ -14924,74 +14735,74 @@
       <c r="DP17" s="149"/>
       <c r="DQ17" s="149"/>
     </row>
-    <row r="18" spans="1:121" ht="15" customHeight="1">
+    <row r="18" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="165">
         <v>11</v>
       </c>
-      <c r="B18" s="377" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="378"/>
-      <c r="D18" s="378"/>
-      <c r="E18" s="378"/>
-      <c r="F18" s="379"/>
-      <c r="G18" s="376" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="308"/>
-      <c r="I18" s="308"/>
-      <c r="J18" s="308"/>
-      <c r="K18" s="309"/>
-      <c r="L18" s="376" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" s="308"/>
-      <c r="N18" s="308"/>
-      <c r="O18" s="308"/>
-      <c r="P18" s="309"/>
+      <c r="B18" s="378" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="379"/>
+      <c r="D18" s="379"/>
+      <c r="E18" s="379"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="377" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="377" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="309"/>
+      <c r="N18" s="309"/>
+      <c r="O18" s="309"/>
+      <c r="P18" s="310"/>
       <c r="Q18" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="R18" s="376" t="s">
-        <v>115</v>
-      </c>
-      <c r="S18" s="308"/>
-      <c r="T18" s="308"/>
-      <c r="U18" s="309"/>
-      <c r="V18" s="380">
+        <v>110</v>
+      </c>
+      <c r="R18" s="377" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" s="309"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="310"/>
+      <c r="V18" s="381">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="381"/>
-      <c r="X18" s="382" t="s">
+      <c r="W18" s="382"/>
+      <c r="X18" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y18" s="383"/>
-      <c r="Z18" s="376" t="s">
+      <c r="Y18" s="384"/>
+      <c r="Z18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA18" s="309"/>
-      <c r="AB18" s="376" t="s">
+      <c r="AA18" s="310"/>
+      <c r="AB18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="309"/>
-      <c r="AD18" s="382" t="s">
+      <c r="AC18" s="310"/>
+      <c r="AD18" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="383"/>
-      <c r="AF18" s="376" t="s">
+      <c r="AE18" s="384"/>
+      <c r="AF18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="308"/>
-      <c r="AH18" s="309"/>
-      <c r="AI18" s="377" t="s">
+      <c r="AG18" s="309"/>
+      <c r="AH18" s="310"/>
+      <c r="AI18" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ18" s="378"/>
-      <c r="AK18" s="378"/>
-      <c r="AL18" s="378"/>
-      <c r="AM18" s="378"/>
-      <c r="AN18" s="379"/>
+      <c r="AJ18" s="379"/>
+      <c r="AK18" s="379"/>
+      <c r="AL18" s="379"/>
+      <c r="AM18" s="379"/>
+      <c r="AN18" s="380"/>
       <c r="AS18" s="167"/>
       <c r="AT18" s="167"/>
       <c r="AU18" s="168"/>
@@ -15053,73 +14864,73 @@
       <c r="DP18" s="149"/>
       <c r="DQ18" s="149"/>
     </row>
-    <row r="19" spans="1:121" ht="15" customHeight="1">
+    <row r="19" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="165">
         <v>12</v>
       </c>
-      <c r="B19" s="377" t="s">
+      <c r="B19" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="379"/>
+      <c r="D19" s="379"/>
+      <c r="E19" s="379"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="377" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="378"/>
-      <c r="D19" s="378"/>
-      <c r="E19" s="378"/>
-      <c r="F19" s="379"/>
-      <c r="G19" s="376" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="308"/>
-      <c r="I19" s="308"/>
-      <c r="J19" s="308"/>
-      <c r="K19" s="309"/>
-      <c r="L19" s="376" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" s="308"/>
-      <c r="N19" s="308"/>
-      <c r="O19" s="308"/>
-      <c r="P19" s="309"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="310"/>
+      <c r="L19" s="377" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="309"/>
+      <c r="N19" s="309"/>
+      <c r="O19" s="309"/>
+      <c r="P19" s="310"/>
       <c r="Q19" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" s="377" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="376" t="s">
-        <v>112</v>
-      </c>
-      <c r="S19" s="308"/>
-      <c r="T19" s="308"/>
-      <c r="U19" s="309"/>
-      <c r="V19" s="380">
+      <c r="S19" s="309"/>
+      <c r="T19" s="309"/>
+      <c r="U19" s="310"/>
+      <c r="V19" s="381">
         <v>11</v>
       </c>
-      <c r="W19" s="381"/>
-      <c r="X19" s="382" t="s">
+      <c r="W19" s="382"/>
+      <c r="X19" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="383"/>
-      <c r="Z19" s="376" t="s">
+      <c r="Y19" s="384"/>
+      <c r="Z19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="309"/>
-      <c r="AB19" s="376" t="s">
+      <c r="AA19" s="310"/>
+      <c r="AB19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="309"/>
-      <c r="AD19" s="382" t="s">
+      <c r="AC19" s="310"/>
+      <c r="AD19" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE19" s="383"/>
-      <c r="AF19" s="376" t="s">
+      <c r="AE19" s="384"/>
+      <c r="AF19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG19" s="308"/>
-      <c r="AH19" s="309"/>
-      <c r="AI19" s="377" t="s">
+      <c r="AG19" s="309"/>
+      <c r="AH19" s="310"/>
+      <c r="AI19" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ19" s="378"/>
-      <c r="AK19" s="378"/>
-      <c r="AL19" s="378"/>
-      <c r="AM19" s="378"/>
-      <c r="AN19" s="379"/>
+      <c r="AJ19" s="379"/>
+      <c r="AK19" s="379"/>
+      <c r="AL19" s="379"/>
+      <c r="AM19" s="379"/>
+      <c r="AN19" s="380"/>
       <c r="AS19" s="167"/>
       <c r="AT19" s="167"/>
       <c r="AU19" s="168"/>
@@ -15181,73 +14992,73 @@
       <c r="DP19" s="149"/>
       <c r="DQ19" s="149"/>
     </row>
-    <row r="20" spans="1:121" ht="15" customHeight="1">
+    <row r="20" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="165">
         <v>13</v>
       </c>
-      <c r="B20" s="377" t="s">
+      <c r="B20" s="378" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="379"/>
+      <c r="D20" s="379"/>
+      <c r="E20" s="379"/>
+      <c r="F20" s="380"/>
+      <c r="G20" s="377" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="378"/>
-      <c r="D20" s="378"/>
-      <c r="E20" s="378"/>
-      <c r="F20" s="379"/>
-      <c r="G20" s="376" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="308"/>
-      <c r="I20" s="308"/>
-      <c r="J20" s="308"/>
-      <c r="K20" s="309"/>
-      <c r="L20" s="376" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" s="308"/>
-      <c r="N20" s="308"/>
-      <c r="O20" s="308"/>
-      <c r="P20" s="309"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="310"/>
+      <c r="L20" s="377" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="309"/>
+      <c r="N20" s="309"/>
+      <c r="O20" s="309"/>
+      <c r="P20" s="310"/>
       <c r="Q20" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="377" t="s">
         <v>111</v>
       </c>
-      <c r="R20" s="376" t="s">
-        <v>112</v>
-      </c>
-      <c r="S20" s="308"/>
-      <c r="T20" s="308"/>
-      <c r="U20" s="309"/>
-      <c r="V20" s="380">
+      <c r="S20" s="309"/>
+      <c r="T20" s="309"/>
+      <c r="U20" s="310"/>
+      <c r="V20" s="381">
         <v>11</v>
       </c>
-      <c r="W20" s="381"/>
-      <c r="X20" s="382" t="s">
+      <c r="W20" s="382"/>
+      <c r="X20" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y20" s="383"/>
-      <c r="Z20" s="376" t="s">
+      <c r="Y20" s="384"/>
+      <c r="Z20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA20" s="309"/>
-      <c r="AB20" s="376" t="s">
+      <c r="AA20" s="310"/>
+      <c r="AB20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="309"/>
-      <c r="AD20" s="382" t="s">
+      <c r="AC20" s="310"/>
+      <c r="AD20" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE20" s="383"/>
-      <c r="AF20" s="376" t="s">
+      <c r="AE20" s="384"/>
+      <c r="AF20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG20" s="308"/>
-      <c r="AH20" s="309"/>
-      <c r="AI20" s="377" t="s">
+      <c r="AG20" s="309"/>
+      <c r="AH20" s="310"/>
+      <c r="AI20" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ20" s="378"/>
-      <c r="AK20" s="378"/>
-      <c r="AL20" s="378"/>
-      <c r="AM20" s="378"/>
-      <c r="AN20" s="379"/>
+      <c r="AJ20" s="379"/>
+      <c r="AK20" s="379"/>
+      <c r="AL20" s="379"/>
+      <c r="AM20" s="379"/>
+      <c r="AN20" s="380"/>
       <c r="AS20" s="167"/>
       <c r="AT20" s="167"/>
       <c r="AU20" s="168"/>
@@ -15309,47 +15120,47 @@
       <c r="DP20" s="149"/>
       <c r="DQ20" s="149"/>
     </row>
-    <row r="21" spans="1:121" ht="15" customHeight="1">
+    <row r="21" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="165"/>
-      <c r="B21" s="377"/>
-      <c r="C21" s="378"/>
-      <c r="D21" s="378"/>
-      <c r="E21" s="378"/>
-      <c r="F21" s="379"/>
-      <c r="G21" s="384"/>
-      <c r="H21" s="385"/>
-      <c r="I21" s="385"/>
-      <c r="J21" s="385"/>
-      <c r="K21" s="386"/>
-      <c r="L21" s="377"/>
-      <c r="M21" s="378"/>
-      <c r="N21" s="378"/>
-      <c r="O21" s="378"/>
-      <c r="P21" s="379"/>
+      <c r="B21" s="378"/>
+      <c r="C21" s="379"/>
+      <c r="D21" s="379"/>
+      <c r="E21" s="379"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="386"/>
+      <c r="I21" s="386"/>
+      <c r="J21" s="386"/>
+      <c r="K21" s="387"/>
+      <c r="L21" s="378"/>
+      <c r="M21" s="379"/>
+      <c r="N21" s="379"/>
+      <c r="O21" s="379"/>
+      <c r="P21" s="380"/>
       <c r="Q21" s="166"/>
-      <c r="R21" s="376"/>
-      <c r="S21" s="308"/>
-      <c r="T21" s="308"/>
-      <c r="U21" s="309"/>
-      <c r="V21" s="380"/>
-      <c r="W21" s="381"/>
-      <c r="X21" s="382"/>
-      <c r="Y21" s="383"/>
-      <c r="Z21" s="376"/>
-      <c r="AA21" s="309"/>
-      <c r="AB21" s="376"/>
-      <c r="AC21" s="309"/>
-      <c r="AD21" s="382"/>
-      <c r="AE21" s="383"/>
-      <c r="AF21" s="376"/>
-      <c r="AG21" s="308"/>
-      <c r="AH21" s="309"/>
-      <c r="AI21" s="377"/>
-      <c r="AJ21" s="378"/>
-      <c r="AK21" s="378"/>
-      <c r="AL21" s="378"/>
-      <c r="AM21" s="378"/>
-      <c r="AN21" s="379"/>
+      <c r="R21" s="377"/>
+      <c r="S21" s="309"/>
+      <c r="T21" s="309"/>
+      <c r="U21" s="310"/>
+      <c r="V21" s="381"/>
+      <c r="W21" s="382"/>
+      <c r="X21" s="383"/>
+      <c r="Y21" s="384"/>
+      <c r="Z21" s="377"/>
+      <c r="AA21" s="310"/>
+      <c r="AB21" s="377"/>
+      <c r="AC21" s="310"/>
+      <c r="AD21" s="383"/>
+      <c r="AE21" s="384"/>
+      <c r="AF21" s="377"/>
+      <c r="AG21" s="309"/>
+      <c r="AH21" s="310"/>
+      <c r="AI21" s="378"/>
+      <c r="AJ21" s="379"/>
+      <c r="AK21" s="379"/>
+      <c r="AL21" s="379"/>
+      <c r="AM21" s="379"/>
+      <c r="AN21" s="380"/>
       <c r="AS21" s="167"/>
       <c r="AT21" s="167"/>
       <c r="AU21" s="168"/>
@@ -15411,47 +15222,47 @@
       <c r="DP21" s="149"/>
       <c r="DQ21" s="149"/>
     </row>
-    <row r="22" spans="1:121" ht="15" customHeight="1">
+    <row r="22" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="165"/>
-      <c r="B22" s="377"/>
-      <c r="C22" s="378"/>
-      <c r="D22" s="378"/>
-      <c r="E22" s="378"/>
-      <c r="F22" s="379"/>
-      <c r="G22" s="384"/>
-      <c r="H22" s="385"/>
-      <c r="I22" s="385"/>
-      <c r="J22" s="385"/>
-      <c r="K22" s="386"/>
-      <c r="L22" s="377"/>
-      <c r="M22" s="378"/>
-      <c r="N22" s="378"/>
-      <c r="O22" s="378"/>
-      <c r="P22" s="379"/>
+      <c r="B22" s="378"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="385"/>
+      <c r="H22" s="386"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="386"/>
+      <c r="K22" s="387"/>
+      <c r="L22" s="378"/>
+      <c r="M22" s="379"/>
+      <c r="N22" s="379"/>
+      <c r="O22" s="379"/>
+      <c r="P22" s="380"/>
       <c r="Q22" s="166"/>
-      <c r="R22" s="376"/>
-      <c r="S22" s="308"/>
-      <c r="T22" s="308"/>
-      <c r="U22" s="309"/>
-      <c r="V22" s="380"/>
-      <c r="W22" s="381"/>
-      <c r="X22" s="382"/>
-      <c r="Y22" s="383"/>
-      <c r="Z22" s="376"/>
-      <c r="AA22" s="309"/>
-      <c r="AB22" s="376"/>
-      <c r="AC22" s="309"/>
-      <c r="AD22" s="382"/>
-      <c r="AE22" s="383"/>
-      <c r="AF22" s="376"/>
-      <c r="AG22" s="308"/>
-      <c r="AH22" s="309"/>
-      <c r="AI22" s="377"/>
-      <c r="AJ22" s="378"/>
-      <c r="AK22" s="378"/>
-      <c r="AL22" s="378"/>
-      <c r="AM22" s="378"/>
-      <c r="AN22" s="379"/>
+      <c r="R22" s="377"/>
+      <c r="S22" s="309"/>
+      <c r="T22" s="309"/>
+      <c r="U22" s="310"/>
+      <c r="V22" s="381"/>
+      <c r="W22" s="382"/>
+      <c r="X22" s="383"/>
+      <c r="Y22" s="384"/>
+      <c r="Z22" s="377"/>
+      <c r="AA22" s="310"/>
+      <c r="AB22" s="377"/>
+      <c r="AC22" s="310"/>
+      <c r="AD22" s="383"/>
+      <c r="AE22" s="384"/>
+      <c r="AF22" s="377"/>
+      <c r="AG22" s="309"/>
+      <c r="AH22" s="310"/>
+      <c r="AI22" s="378"/>
+      <c r="AJ22" s="379"/>
+      <c r="AK22" s="379"/>
+      <c r="AL22" s="379"/>
+      <c r="AM22" s="379"/>
+      <c r="AN22" s="380"/>
       <c r="AS22" s="167"/>
       <c r="AT22" s="167"/>
       <c r="AU22" s="168"/>
@@ -15513,47 +15324,47 @@
       <c r="DP22" s="149"/>
       <c r="DQ22" s="149"/>
     </row>
-    <row r="23" spans="1:121" ht="15" customHeight="1">
+    <row r="23" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="165"/>
-      <c r="B23" s="377"/>
-      <c r="C23" s="378"/>
-      <c r="D23" s="378"/>
-      <c r="E23" s="378"/>
-      <c r="F23" s="379"/>
-      <c r="G23" s="377"/>
-      <c r="H23" s="378"/>
-      <c r="I23" s="378"/>
-      <c r="J23" s="378"/>
-      <c r="K23" s="379"/>
-      <c r="L23" s="377"/>
-      <c r="M23" s="378"/>
-      <c r="N23" s="378"/>
-      <c r="O23" s="378"/>
-      <c r="P23" s="379"/>
+      <c r="B23" s="378"/>
+      <c r="C23" s="379"/>
+      <c r="D23" s="379"/>
+      <c r="E23" s="379"/>
+      <c r="F23" s="380"/>
+      <c r="G23" s="378"/>
+      <c r="H23" s="379"/>
+      <c r="I23" s="379"/>
+      <c r="J23" s="379"/>
+      <c r="K23" s="380"/>
+      <c r="L23" s="378"/>
+      <c r="M23" s="379"/>
+      <c r="N23" s="379"/>
+      <c r="O23" s="379"/>
+      <c r="P23" s="380"/>
       <c r="Q23" s="166"/>
-      <c r="R23" s="376"/>
-      <c r="S23" s="308"/>
-      <c r="T23" s="308"/>
-      <c r="U23" s="309"/>
-      <c r="V23" s="391"/>
-      <c r="W23" s="392"/>
-      <c r="X23" s="393"/>
-      <c r="Y23" s="394"/>
-      <c r="Z23" s="382"/>
-      <c r="AA23" s="383"/>
-      <c r="AB23" s="376"/>
-      <c r="AC23" s="309"/>
-      <c r="AD23" s="382"/>
-      <c r="AE23" s="383"/>
-      <c r="AF23" s="376"/>
-      <c r="AG23" s="308"/>
-      <c r="AH23" s="309"/>
-      <c r="AI23" s="377"/>
-      <c r="AJ23" s="378"/>
-      <c r="AK23" s="378"/>
-      <c r="AL23" s="378"/>
-      <c r="AM23" s="378"/>
-      <c r="AN23" s="379"/>
+      <c r="R23" s="377"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="309"/>
+      <c r="U23" s="310"/>
+      <c r="V23" s="392"/>
+      <c r="W23" s="393"/>
+      <c r="X23" s="394"/>
+      <c r="Y23" s="395"/>
+      <c r="Z23" s="383"/>
+      <c r="AA23" s="384"/>
+      <c r="AB23" s="377"/>
+      <c r="AC23" s="310"/>
+      <c r="AD23" s="383"/>
+      <c r="AE23" s="384"/>
+      <c r="AF23" s="377"/>
+      <c r="AG23" s="309"/>
+      <c r="AH23" s="310"/>
+      <c r="AI23" s="378"/>
+      <c r="AJ23" s="379"/>
+      <c r="AK23" s="379"/>
+      <c r="AL23" s="379"/>
+      <c r="AM23" s="379"/>
+      <c r="AN23" s="380"/>
       <c r="AS23" s="167"/>
       <c r="AT23" s="167"/>
       <c r="AU23" s="168"/>
@@ -15848,127 +15659,127 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12">
+    <row r="1" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="170" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A3" s="171" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="170" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12">
-      <c r="A3" s="171" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12">
-      <c r="A4" s="170" t="s">
+    <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A5" s="170" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12">
-      <c r="A5" s="170" t="s">
+    <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A6" s="170" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="170" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12">
-      <c r="A6" s="170" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="12">
-      <c r="A7" s="170" t="s">
+    <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="171" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="12">
-      <c r="A8" s="171" t="s">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" ht="12">
-      <c r="A9" s="171" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="171" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12">
-      <c r="A10" s="171" t="s">
+    <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A11" s="171" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12">
-      <c r="A11" s="171" t="s">
+    <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="171" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="171" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12">
-      <c r="A12" s="171" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="12">
-      <c r="A13" s="171" t="s">
+    <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="171" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12">
-      <c r="A14" s="171" t="s">
+    <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A15" s="171" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12">
-      <c r="A15" s="171" t="s">
+    <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.2">
+      <c r="A16" s="171" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12">
-      <c r="A16" s="171" t="s">
+    <row r="17" spans="1:1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="171" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12">
-      <c r="A17" s="171" t="s">
+    <row r="18" spans="1:1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="171" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12">
-      <c r="A18" s="171" t="s">
+    <row r="19" spans="1:1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="171" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12">
-      <c r="A19" s="171" t="s">
+    <row r="20" spans="1:1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A20" s="172" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12">
-      <c r="A20" s="172" t="s">
+    <row r="21" spans="1:1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A21" s="172" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12">
-      <c r="A21" s="172" t="s">
+    <row r="22" spans="1:1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A22" s="172" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="12">
-      <c r="A22" s="172" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>